--- a/LEVI.xlsx
+++ b/LEVI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlshe\Documents\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96821B41-2D11-4A20-9DA8-C20509270F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5623A27-BBEE-4668-BA0B-4D0B45040F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40695" yWindow="2775" windowWidth="21540" windowHeight="11400" activeTab="1" xr2:uid="{FB0A6173-1360-433C-88A0-C11949A07E2D}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="17205" windowHeight="15585" activeTab="1" xr2:uid="{FB0A6173-1360-433C-88A0-C11949A07E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -41,15 +41,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={ABA6AA22-41D5-454C-8CF1-CFF0070551D4}</author>
+    <author>tc={B11326B7-3EC4-43DE-87FF-ADBAF0D09965}</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{ABA6AA22-41D5-454C-8CF1-CFF0070551D4}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{B11326B7-3EC4-43DE-87FF-ADBAF0D09965}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Includes ST accrued salaries/wages/ee benefits, LT debt, postretirement medical benefits, pension liabilities, LT ee related benefits</t>
+    ST debt, Accrued salaries/wages/EE benefits, LT debt, LT EE related benefits &amp; other liabs.</t>
       </text>
     </comment>
   </commentList>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>Company</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Restructuring Charges</t>
   </si>
   <si>
-    <t>10K21</t>
-  </si>
-  <si>
     <t>Americas Wholesale Revenue</t>
   </si>
   <si>
@@ -384,7 +381,22 @@
     <t>5yr tbond</t>
   </si>
   <si>
-    <t>koyfin 10/29/22</t>
+    <t>1Q23</t>
+  </si>
+  <si>
+    <t>2Q23</t>
+  </si>
+  <si>
+    <t>3Q23</t>
+  </si>
+  <si>
+    <t>4Q23</t>
+  </si>
+  <si>
+    <t>10K22</t>
+  </si>
+  <si>
+    <t>koyfin 6/13/23</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +470,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -551,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -592,7 +610,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -665,16 +682,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -689,8 +706,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18878550" y="38100"/>
-          <a:ext cx="0" cy="9886950"/>
+          <a:off x="21383625" y="57150"/>
+          <a:ext cx="0" cy="11210925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -715,16 +732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -739,8 +756,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23479125" y="47625"/>
-          <a:ext cx="0" cy="6553200"/>
+          <a:off x="30937200" y="73025"/>
+          <a:ext cx="0" cy="11214100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -767,17 +784,20 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="T-Bond Yields"/>
       <sheetName val="Companies"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="7">
-          <cell r="C7">
-            <v>4.19E-2</v>
+        <row r="12">
+          <cell r="C12">
+            <v>3.8899999999999997E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -789,7 +809,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="William Sheldon" id="{18A704A9-EEE7-4A56-A6AA-C95E7BF8E316}" userId="667679d5bb2810d2" providerId="Windows Live"/>
+  <person displayName="Sheldon, William L" id="{7C16B7D9-06B4-4386-B9D9-6A505A5F36C2}" userId="S::wls03561@sjfc.edu::8d48f2f3-f221-4d4a-a809-96e2f0718e23" providerId="AD"/>
 </personList>
 </file>
 
@@ -913,39 +933,39 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>28.62</v>
-    <v>13.57</v>
-    <v>1.1451</v>
-    <v>0.09</v>
-    <v>-8.5470000000000008E-3</v>
-    <v>5.9519999999999998E-3</v>
-    <v>-0.13</v>
+    <v>20.49</v>
+    <v>12.8</v>
+    <v>1.1780999999999999</v>
+    <v>0.49</v>
+    <v>-1.348E-3</v>
+    <v>3.4146000000000003E-2</v>
+    <v>-0.02</v>
     <v>USD</v>
-    <v>Levi Strauss &amp; Co. is an apparel company. The Company offers a range of products, including jeans, casual and dress pants, activewear, tops, shorts, skirts, dresses, jackets, footwear and related accessories for men, women and children around the world. The Company operates through three geographical segments: the Americas, Europe, and Asia. Its Levi's Brands business, which includes Levi's, Signature by Levi Strauss &amp; Co. and Denizen brands. Its other brands include Dockers and Beyond Yoga. The Company's products are sold in approximately 50,000 retail locations in more than 110 countries, including approximately 3,100 brand-dedicated stores and shop-in-shops. It has approximately 1,083 Company-operated stores located in approximately 37 countries and approximately 500 Company-operated shop-in-shops. The remainder of its brand-dedicated stores and shop-in-shops are operated by franchisees and other partners.</v>
-    <v>16600</v>
+    <v>Levi Strauss &amp; Co. is an apparel company. The Company designs and markets jeans, casual wear and related accessories for men, women and children under the Levi's, Signatureby Levi Strauss &amp; Co., Denizen, Dockers and Beyond Yoga brands. The Company operates through three geographical segments: Americas, Europe, and Asia. It designs, markets and sells directly or through third parties and licensee's products that include jeans, casual and dress pants, tops, shorts, skirts, dresses, jackets, footwear, and related accessories for men, women and children around the world. Its products are sold in more than 110 countries worldwide through a combination of chain retailers, department stores, online sites, and a global footprint of approximately 3,200 retail stores and shop-in-shops. Outside the United States, department stores, specialty retailers, franchised or other brand-dedicated stores and shop-in-shops are its primary distribution channels.</v>
+    <v>18000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1155 Battery St, SAN FRANCISCO, CA, 94111 US</v>
-    <v>15.31</v>
+    <v>14.85</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>44862.958333356248</v>
+    <v>45090.983064606247</v>
     <v>0</v>
-    <v>14.81</v>
-    <v>5998717000</v>
+    <v>14.350099999999999</v>
+    <v>5882231712</v>
     <v>LEVI STRAUSS &amp; CO.</v>
     <v>LEVI STRAUSS &amp; CO.</v>
-    <v>15.12</v>
-    <v>10.710699999999999</v>
-    <v>15.12</v>
-    <v>15.21</v>
-    <v>15.08</v>
-    <v>394392900</v>
+    <v>14.39</v>
+    <v>11.774900000000001</v>
+    <v>14.35</v>
+    <v>14.84</v>
+    <v>14.82</v>
+    <v>396376800</v>
     <v>LEVI</v>
     <v>LEVI STRAUSS &amp; CO. (XNYS:LEVI)</v>
-    <v>1856640</v>
-    <v>3078865</v>
+    <v>1458408</v>
+    <v>2017708</v>
     <v>1970</v>
   </rv>
   <rv s="2">
@@ -1530,8 +1550,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B8" dT="2022-06-26T17:38:27.02" personId="{18A704A9-EEE7-4A56-A6AA-C95E7BF8E316}" id="{ABA6AA22-41D5-454C-8CF1-CFF0070551D4}">
-    <text>Includes ST accrued salaries/wages/ee benefits, LT debt, postretirement medical benefits, pension liabilities, LT ee related benefits</text>
+  <threadedComment ref="B8" dT="2023-06-14T01:16:26.16" personId="{7C16B7D9-06B4-4386-B9D9-6A505A5F36C2}" id="{B11326B7-3EC4-43DE-87FF-ADBAF0D09965}">
+    <text>ST debt, Accrued salaries/wages/EE benefits, LT debt, LT EE related benefits &amp; other liabs.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1541,19 +1561,19 @@
   <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1564,68 +1584,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="10" cm="1">
         <f t="array" ref="C4">_FV(C3,"Price")</f>
-        <v>15.21</v>
+        <v>14.84</v>
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>403.78241600000001</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>72</v>
+        <v>400.36052899999999</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="12">
         <f>C5*C4</f>
-        <v>6141.5305473600001</v>
+        <v>5941.3502503599993</v>
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="12">
-        <f>498.887+100.521</f>
-        <v>599.40800000000002</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>72</v>
+        <f>321.8</f>
+        <v>321.8</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="12">
-        <f>229.287+963.505+45.066+146.804+104.17</f>
-        <v>1488.8320000000001</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>72</v>
+        <f>162+168.5+993.6+300.4</f>
+        <v>1624.5</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="15">
         <f>C6-C7+C8</f>
-        <v>7030.9545473600001</v>
+        <v>7244.0502503599992</v>
       </c>
       <c r="D9" s="16"/>
     </row>
@@ -1637,43 +1657,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58B7B3-4096-45A6-AA5A-71A143F7BC7F}">
-  <dimension ref="A1:JE56"/>
+  <dimension ref="A1:JM56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AG29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AM24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="AQ55" sqref="AQ55"/>
+      <selection pane="bottomRight" activeCell="AV52" sqref="AV52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="11.28515625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.28515625" style="2" customWidth="1"/>
-    <col min="27" max="29" width="8.7109375" style="2" customWidth="1"/>
-    <col min="30" max="33" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="8.7109375" style="2" customWidth="1"/>
-    <col min="38" max="39" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="265" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="266" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="34.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="11.26953125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="11.26953125" style="2" customWidth="1"/>
+    <col min="33" max="35" width="8.7265625" style="2" customWidth="1"/>
+    <col min="36" max="39" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="43" width="8.7265625" style="2" customWidth="1"/>
+    <col min="44" max="45" width="9.08984375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="271" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="272" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D1" s="17">
         <v>42883</v>
       </c>
@@ -1731,25 +1751,35 @@
       <c r="Y1" s="17">
         <v>44801</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AD1" s="17">
+      <c r="Z1" s="17">
+        <v>44892</v>
+      </c>
+      <c r="AA1" s="17">
+        <v>44983</v>
+      </c>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AJ1" s="17">
         <f>J1</f>
         <v>43429</v>
       </c>
-      <c r="AE1" s="17">
+      <c r="AK1" s="17">
         <f>N1</f>
         <v>43793</v>
       </c>
-      <c r="AF1" s="17">
+      <c r="AL1" s="17">
         <f>R1</f>
         <v>44164</v>
       </c>
-      <c r="AG1" s="17">
+      <c r="AM1" s="17">
         <f>V1</f>
         <v>44528</v>
       </c>
     </row>
-    <row r="2" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
@@ -1822,37 +1852,57 @@
       <c r="Z2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AA2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AI2" s="1">
         <v>2017</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AJ2" s="1">
         <v>2018</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AK2" s="1">
         <v>2019</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AL2" s="1">
         <v>2020</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AM2" s="1">
         <v>2021</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AN2" s="1">
         <v>2022</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AO2" s="1">
         <v>2023</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AP2" s="1">
         <v>2024</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AQ2" s="1">
         <v>2025</v>
       </c>
+      <c r="AR2" s="1">
+        <v>2026</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>2027</v>
+      </c>
     </row>
-    <row r="3" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
-        <v>76</v>
+    <row r="3" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1920,33 +1970,41 @@
         <v>566.84299999999996</v>
       </c>
       <c r="Z3" s="12">
-        <f>V3*1.01</f>
-        <v>637.67359999999985</v>
-      </c>
-      <c r="AD3" s="2">
+        <f>2193.7-SUM(W3:Y3)</f>
+        <v>568.40499999999975</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>530.6</v>
+      </c>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AJ3" s="2">
         <f>SUM(G3:J3)</f>
         <v>2209.8969999999999</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AK3" s="2">
         <f>SUM(K3:N3)</f>
         <v>2181.1680000000001</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AL3" s="2">
         <f>SUM(O3:R3)</f>
         <v>1500.0429999999999</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AM3" s="2">
         <f>SUM(S3:V3)</f>
         <v>2061.33</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AN3" s="2">
         <f>SUM(W3:Z3)</f>
-        <v>2262.9686000000002</v>
+        <v>2193.6999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
-        <v>77</v>
+    <row r="4" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2014,154 +2072,171 @@
         <v>238.239</v>
       </c>
       <c r="Z4" s="12">
-        <f>V4*1.01</f>
-        <v>256.11277000000001</v>
-      </c>
-      <c r="AD4" s="2">
+        <f>993.7-SUM(W4:Y4)</f>
+        <v>271.96699999999998</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AJ4" s="2">
         <f>SUM(G4:J4)</f>
         <v>832.76700000000005</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AK4" s="2">
         <f>SUM(K4:N4)</f>
         <v>875.85599999999999</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AL4" s="2">
         <f>SUM(O4:R4)</f>
         <v>687.85599999999999</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AM4" s="2">
         <f>SUM(S4:V4)</f>
         <v>873.49599999999998</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AN4" s="2">
         <f>SUM(W4:Z4)</f>
-        <v>977.84577000000013</v>
+        <v>993.7</v>
       </c>
     </row>
-    <row r="5" spans="2:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="28">
+        <v>77</v>
+      </c>
+      <c r="C5" s="27">
         <v>577.90700000000004</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>602.06299999999999</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>738.68700000000001</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <f>2774.05-SUM(C5:E5)</f>
         <v>855.39300000000003</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <f t="shared" ref="G5:W5" si="0">+G3+G4</f>
         <v>657.197</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>669.79099999999994</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <f t="shared" si="0"/>
         <v>792.83199999999999</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <f t="shared" si="0"/>
         <v>922.84399999999994</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <f t="shared" si="0"/>
         <v>717.26400000000001</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="27">
         <f t="shared" si="0"/>
         <v>692.69800000000009</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="27">
         <f t="shared" si="0"/>
         <v>770.81700000000001</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="27">
         <f t="shared" si="0"/>
         <v>876.24500000000012</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="27">
         <f t="shared" si="0"/>
         <v>745.57999999999993</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="27">
         <f t="shared" si="0"/>
         <v>282.72800000000001</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <f t="shared" si="0"/>
         <v>549.798</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="27">
         <f t="shared" si="0"/>
         <v>609.79299999999989</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>606.12099999999998</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <f t="shared" si="0"/>
         <v>661.43499999999995</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="27">
         <f t="shared" si="0"/>
         <v>782.33300000000008</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <f t="shared" si="0"/>
         <v>884.9369999999999</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="27">
         <f t="shared" si="0"/>
         <v>765.85199999999998</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="27">
         <f>+X3+X4</f>
         <v>776.09400000000005</v>
       </c>
-      <c r="Y5" s="28">
-        <f t="shared" ref="Y5:Z5" si="1">+Y3+Y4</f>
+      <c r="Y5" s="27">
+        <f t="shared" ref="Y5:AA5" si="1">+Y3+Y4</f>
         <v>805.08199999999999</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="Z5" s="27">
         <f t="shared" si="1"/>
-        <v>893.78636999999981</v>
-      </c>
-      <c r="AC5" s="28">
+        <v>840.37199999999973</v>
+      </c>
+      <c r="AA5" s="27">
+        <f t="shared" si="1"/>
+        <v>823</v>
+      </c>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AI5" s="27">
         <f>SUM(C5:F5)</f>
         <v>2774.05</v>
       </c>
-      <c r="AD5" s="28">
-        <f t="shared" ref="AD5:AG5" si="2">+AD3+AD4</f>
+      <c r="AJ5" s="27">
+        <f t="shared" ref="AJ5:AM5" si="2">+AJ3+AJ4</f>
         <v>3042.6639999999998</v>
       </c>
-      <c r="AE5" s="28">
+      <c r="AK5" s="27">
         <f t="shared" si="2"/>
         <v>3057.0240000000003</v>
       </c>
-      <c r="AF5" s="28">
-        <f>+AF3+AF4</f>
+      <c r="AL5" s="27">
+        <f>+AL3+AL4</f>
         <v>2187.8989999999999</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AM5" s="27">
         <f t="shared" si="2"/>
         <v>2934.826</v>
       </c>
-      <c r="AH5" s="28">
-        <f>+AH3+AH4</f>
-        <v>3240.8143700000001</v>
+      <c r="AN5" s="27">
+        <f>+AN3+AN4</f>
+        <v>3187.3999999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27"/>
+    <row r="6" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2186,118 +2261,133 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
     </row>
-    <row r="7" spans="2:37" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34">
+    <row r="7" spans="2:45" s="31" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33">
         <f>G5/C5-1</f>
         <v>0.13720200655122694</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <f t="shared" ref="H7:Z7" si="3">H5/D5-1</f>
         <v>0.11249321084338337</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <f t="shared" si="3"/>
         <v>7.329897507333949E-2</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="33">
         <f t="shared" si="3"/>
         <v>7.8853813393375827E-2</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f t="shared" si="3"/>
         <v>9.1398773883629936E-2</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="33">
         <f t="shared" si="3"/>
         <v>3.4200220665849823E-2</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <f t="shared" si="3"/>
         <v>-2.7767547223119138E-2</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="33">
         <f t="shared" si="3"/>
         <v>-5.0494991569539183E-2</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <f t="shared" si="3"/>
         <v>3.9477793392669769E-2</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="33">
         <f t="shared" si="3"/>
         <v>-0.59184521970613457</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="33">
         <f t="shared" si="3"/>
         <v>-0.28673342700018289</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="33">
         <f t="shared" si="3"/>
         <v>-0.30408390347448511</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <f t="shared" si="3"/>
         <v>-0.18704766758764979</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="33">
         <f t="shared" si="3"/>
         <v>1.3394746894541747</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="33">
         <f t="shared" si="3"/>
         <v>0.42294624571206163</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="33">
         <f t="shared" si="3"/>
         <v>0.45120885284022627</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="33">
         <f t="shared" si="3"/>
         <v>0.26352988924653653</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="33">
         <f t="shared" si="3"/>
         <v>0.17334885514071696</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="33">
         <f t="shared" si="3"/>
         <v>2.9078410344443917E-2</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="33">
         <f t="shared" si="3"/>
-        <v>9.9999999999997868E-3</v>
-      </c>
-      <c r="AD7" s="35">
-        <f>AD5/AC5-1</f>
+        <v>-5.0359517118167885E-2</v>
+      </c>
+      <c r="AA7" s="33">
+        <f t="shared" ref="AA7" si="4">AA5/W5-1</f>
+        <v>7.4620161597802159E-2</v>
+      </c>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AJ7" s="34">
+        <f>AJ5/AI5-1</f>
         <v>9.6830987184801876E-2</v>
       </c>
-      <c r="AE7" s="35">
-        <f t="shared" ref="AE7:AH7" si="4">AE5/AD5-1</f>
+      <c r="AK7" s="34">
+        <f t="shared" ref="AK7:AN7" si="5">AK5/AJ5-1</f>
         <v>4.7195483957480633E-3</v>
       </c>
-      <c r="AF7" s="35">
-        <f t="shared" si="4"/>
+      <c r="AL7" s="34">
+        <f t="shared" si="5"/>
         <v>-0.2843042776242517</v>
       </c>
-      <c r="AG7" s="35">
-        <f t="shared" si="4"/>
+      <c r="AM7" s="34">
+        <f t="shared" si="5"/>
         <v>0.34139007330777149</v>
       </c>
-      <c r="AH7" s="35">
-        <f t="shared" si="4"/>
-        <v>0.10426116233125926</v>
+      <c r="AN7" s="34">
+        <f t="shared" si="5"/>
+        <v>8.6060979424333661E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
+    <row r="8" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -2322,10 +2412,16 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
     </row>
-    <row r="9" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
-        <v>79</v>
+    <row r="9" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2393,33 +2489,41 @@
         <v>230.851</v>
       </c>
       <c r="Z9" s="12">
-        <f t="shared" ref="Z9:Z10" si="5">V9*1.01</f>
-        <v>241.66370999999995</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AD10" si="6">SUM(G9:J9)</f>
+        <f>879.8-SUM(W9:Y9)</f>
+        <v>192.61299999999994</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>244.1</v>
+      </c>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AJ9" s="2">
+        <f t="shared" ref="AJ9:AJ10" si="6">SUM(G9:J9)</f>
         <v>925.31700000000001</v>
       </c>
-      <c r="AE9" s="2">
-        <f t="shared" ref="AE9:AE10" si="7">SUM(K9:N9)</f>
+      <c r="AK9" s="2">
+        <f t="shared" ref="AK9:AK10" si="7">SUM(K9:N9)</f>
         <v>981.30799999999999</v>
       </c>
-      <c r="AF9" s="2">
-        <f t="shared" ref="AF9:AF10" si="8">SUM(O9:R9)</f>
+      <c r="AL9" s="2">
+        <f t="shared" ref="AL9:AL10" si="8">SUM(O9:R9)</f>
         <v>776.947</v>
       </c>
-      <c r="AG9" s="2">
-        <f t="shared" ref="AG9:AG10" si="9">SUM(S9:V9)</f>
+      <c r="AM9" s="2">
+        <f t="shared" ref="AM9:AM10" si="9">SUM(S9:V9)</f>
         <v>1003.8440000000001</v>
       </c>
-      <c r="AH9" s="2">
-        <f t="shared" ref="AH9:AH10" si="10">SUM(W9:Z9)</f>
-        <v>928.85070999999994</v>
+      <c r="AN9" s="2">
+        <f t="shared" ref="AN9:AN10" si="10">SUM(W9:Z9)</f>
+        <v>879.8</v>
       </c>
     </row>
-    <row r="10" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
-        <v>80</v>
+    <row r="10" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2487,296 +2591,328 @@
         <v>159.453</v>
       </c>
       <c r="Z10" s="12">
-        <f t="shared" si="5"/>
-        <v>216.17029999999997</v>
-      </c>
-      <c r="AD10" s="2">
+        <f>717.4-SUM(W10:Y10)</f>
+        <v>177.78899999999999</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>211</v>
+      </c>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AJ10" s="2">
         <f t="shared" si="6"/>
         <v>720.91899999999998</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AK10" s="2">
         <f t="shared" si="7"/>
         <v>786.74800000000005</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AL10" s="2">
         <f t="shared" si="8"/>
         <v>614.81700000000001</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AM10" s="2">
         <f t="shared" si="9"/>
         <v>700.17399999999998</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AN10" s="2">
         <f t="shared" si="10"/>
-        <v>755.78129999999999</v>
+        <v>717.4</v>
       </c>
     </row>
-    <row r="11" spans="2:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="28">
+        <v>80</v>
+      </c>
+      <c r="C11" s="27">
         <v>310.31700000000001</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>280.38600000000002</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>348.01600000000002</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <f>1312.276-SUM(C11:E11)</f>
         <v>373.55700000000002</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <f t="shared" ref="G11:W11" si="11">+G9+G10</f>
         <v>452.72199999999998</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <f t="shared" si="11"/>
         <v>366.83600000000001</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f t="shared" si="11"/>
         <v>405.73699999999997</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="27">
         <f t="shared" si="11"/>
         <v>420.94100000000003</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <f t="shared" si="11"/>
         <v>464.67599999999999</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="27">
         <f t="shared" si="11"/>
         <v>398.36900000000003</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="27">
         <f t="shared" si="11"/>
         <v>463.25799999999998</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <f t="shared" si="11"/>
         <v>441.75300000000016</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="27">
         <f t="shared" si="11"/>
         <v>512.94299999999998</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="27">
         <f t="shared" si="11"/>
         <v>129.02300000000002</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <f t="shared" si="11"/>
         <v>390.37299999999999</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="27">
         <f t="shared" si="11"/>
         <v>359.42500000000013</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <f t="shared" si="11"/>
         <v>416.71699999999998</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="27">
         <f t="shared" si="11"/>
         <v>354.88599999999997</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="27">
         <f t="shared" si="11"/>
         <v>479.11400000000003</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="27">
         <f t="shared" si="11"/>
         <v>453.30099999999993</v>
       </c>
-      <c r="W11" s="28">
+      <c r="W11" s="27">
         <f t="shared" si="11"/>
         <v>469.35700000000003</v>
       </c>
-      <c r="X11" s="28">
+      <c r="X11" s="27">
         <f>+X9+X10</f>
         <v>367.137</v>
       </c>
-      <c r="Y11" s="28">
-        <f t="shared" ref="Y11:Z11" si="12">+Y9+Y10</f>
+      <c r="Y11" s="27">
+        <f t="shared" ref="Y11:AA11" si="12">+Y9+Y10</f>
         <v>390.30399999999997</v>
       </c>
-      <c r="Z11" s="28">
+      <c r="Z11" s="27">
         <f t="shared" si="12"/>
-        <v>457.83400999999992</v>
-      </c>
-      <c r="AC11" s="28">
+        <v>370.40199999999993</v>
+      </c>
+      <c r="AA11" s="27">
+        <f t="shared" si="12"/>
+        <v>455.1</v>
+      </c>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AI11" s="27">
         <f>SUM(C11:F11)</f>
         <v>1312.2760000000001</v>
       </c>
-      <c r="AD11" s="28">
-        <f t="shared" ref="AD11:AH11" si="13">+AD9+AD10</f>
+      <c r="AJ11" s="27">
+        <f t="shared" ref="AJ11:AN11" si="13">+AJ9+AJ10</f>
         <v>1646.2359999999999</v>
       </c>
-      <c r="AE11" s="28">
+      <c r="AK11" s="27">
         <f t="shared" si="13"/>
         <v>1768.056</v>
       </c>
-      <c r="AF11" s="28">
+      <c r="AL11" s="27">
         <f t="shared" si="13"/>
         <v>1391.7640000000001</v>
       </c>
-      <c r="AG11" s="28">
+      <c r="AM11" s="27">
         <f t="shared" si="13"/>
         <v>1704.018</v>
       </c>
-      <c r="AH11" s="28">
+      <c r="AN11" s="27">
         <f t="shared" si="13"/>
-        <v>1684.6320099999998</v>
+        <v>1597.1999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
+    <row r="12" spans="2:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
     </row>
-    <row r="13" spans="2:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="34">
+    <row r="13" spans="2:45" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="33">
         <f>G11/C11-1</f>
         <v>0.45890170374165762</v>
       </c>
-      <c r="H13" s="34">
-        <f t="shared" ref="H13:Z13" si="14">H11/D11-1</f>
+      <c r="H13" s="33">
+        <f t="shared" ref="H13:AA13" si="14">H11/D11-1</f>
         <v>0.30832495203041521</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f t="shared" si="14"/>
         <v>0.16585731690496974</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <f t="shared" si="14"/>
         <v>0.12684543456554165</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f t="shared" si="14"/>
         <v>2.6404725195594558E-2</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="33">
         <f t="shared" si="14"/>
         <v>8.595939329836777E-2</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <f t="shared" si="14"/>
         <v>0.14176917559897184</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="33">
         <f t="shared" si="14"/>
         <v>4.9441608206375998E-2</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="33">
         <f t="shared" si="14"/>
         <v>0.10387237559073426</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="33">
         <f t="shared" si="14"/>
         <v>-0.67612188699421893</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="33">
         <f t="shared" si="14"/>
         <v>-0.15733133588626635</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="33">
         <f t="shared" si="14"/>
         <v>-0.18636658947420848</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="33">
         <f t="shared" si="14"/>
         <v>-0.18759589272102362</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="33">
         <f t="shared" si="14"/>
         <v>1.7505638529564487</v>
       </c>
-      <c r="U13" s="34">
+      <c r="U13" s="33">
         <f t="shared" si="14"/>
         <v>0.22732361100793352</v>
       </c>
-      <c r="V13" s="34">
+      <c r="V13" s="33">
         <f t="shared" si="14"/>
         <v>0.26118383529248046</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="33">
         <f t="shared" si="14"/>
         <v>0.12632074045455322</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="33">
         <f t="shared" si="14"/>
         <v>3.4520944754090177E-2</v>
       </c>
-      <c r="Y13" s="34">
+      <c r="Y13" s="33">
         <f t="shared" si="14"/>
         <v>-0.18536298250520766</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="Z13" s="33">
         <f t="shared" si="14"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="35">
-        <f>AD11/AC11-1</f>
+        <v>-0.18287848471545398</v>
+      </c>
+      <c r="AA13" s="33">
+        <f t="shared" si="14"/>
+        <v>-3.0375598957723016E-2</v>
+      </c>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="34">
+        <f>AJ11/AI11-1</f>
         <v>0.25448914710015247</v>
       </c>
-      <c r="AE13" s="35">
-        <f t="shared" ref="AD13:AH13" si="15">AE11/AD11-1</f>
+      <c r="AK13" s="34">
+        <f t="shared" ref="AK13:AN13" si="15">AK11/AJ11-1</f>
         <v>7.3999110698587778E-2</v>
       </c>
-      <c r="AF13" s="35">
-        <f>AF11/AE11-1</f>
+      <c r="AL13" s="34">
+        <f>AL11/AK11-1</f>
         <v>-0.21282810046740597</v>
       </c>
-      <c r="AG13" s="35">
+      <c r="AM13" s="34">
         <f t="shared" si="15"/>
         <v>0.22435844008035843</v>
       </c>
-      <c r="AH13" s="35">
+      <c r="AN13" s="34">
         <f t="shared" si="15"/>
-        <v>-1.1376634519119078E-2</v>
+        <v>-6.268595754270212E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
+    <row r="14" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -2801,10 +2937,16 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
-        <v>82</v>
+    <row r="15" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2872,33 +3014,41 @@
         <v>115.901</v>
       </c>
       <c r="Z15" s="12">
-        <f t="shared" ref="Z15:Z16" si="16">V15*1.01</f>
-        <v>110.93132999999997</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" ref="AD15:AD16" si="17">SUM(G15:J15)</f>
+        <f>458.3-SUM(W15:Y15)</f>
+        <v>112.351</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>134</v>
+      </c>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AJ15" s="2">
+        <f t="shared" ref="AJ15:AJ16" si="16">SUM(G15:J15)</f>
         <v>464.95299999999997</v>
       </c>
-      <c r="AE15" s="2">
-        <f t="shared" ref="AE15:AE16" si="18">SUM(K15:N15)</f>
+      <c r="AK15" s="2">
+        <f t="shared" ref="AK15:AK16" si="17">SUM(K15:N15)</f>
         <v>498.04300000000001</v>
       </c>
-      <c r="AF15" s="2">
-        <f t="shared" ref="AF15:AF16" si="19">SUM(O15:R15)</f>
+      <c r="AL15" s="2">
+        <f t="shared" ref="AL15:AL16" si="18">SUM(O15:R15)</f>
         <v>291.88</v>
       </c>
-      <c r="AG15" s="2">
-        <f t="shared" ref="AG15:AG16" si="20">SUM(S15:V15)</f>
+      <c r="AM15" s="2">
+        <f t="shared" ref="AM15:AM16" si="19">SUM(S15:V15)</f>
         <v>389.327</v>
       </c>
-      <c r="AH15" s="2">
-        <f t="shared" ref="AH15:AH16" si="21">SUM(W15:Z15)</f>
-        <v>456.88032999999996</v>
+      <c r="AN15" s="2">
+        <f t="shared" ref="AN15:AN16" si="20">SUM(W15:Z15)</f>
+        <v>458.3</v>
       </c>
     </row>
-    <row r="16" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
-        <v>83</v>
+    <row r="16" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2966,296 +3116,328 @@
         <v>104.745</v>
       </c>
       <c r="Z16" s="12">
+        <f>493.8-SUM(W16:Y16)</f>
+        <v>138.85000000000002</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>155.5</v>
+      </c>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AJ16" s="2">
         <f t="shared" si="16"/>
-        <v>139.31233</v>
-      </c>
-      <c r="AD16" s="2">
+        <v>421.58699999999999</v>
+      </c>
+      <c r="AK16" s="2">
         <f t="shared" si="17"/>
-        <v>421.58699999999999</v>
-      </c>
-      <c r="AE16" s="2">
+        <v>439.964</v>
+      </c>
+      <c r="AL16" s="2">
         <f t="shared" si="18"/>
-        <v>439.964</v>
-      </c>
-      <c r="AF16" s="2">
+        <v>371.51100000000002</v>
+      </c>
+      <c r="AM16" s="2">
         <f t="shared" si="19"/>
-        <v>371.51100000000002</v>
-      </c>
-      <c r="AG16" s="2">
+        <v>445.322</v>
+      </c>
+      <c r="AN16" s="2">
         <f t="shared" si="20"/>
-        <v>445.322</v>
-      </c>
-      <c r="AH16" s="2">
-        <f t="shared" si="21"/>
-        <v>494.26233000000002</v>
+        <v>493.8</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="28">
+        <v>83</v>
+      </c>
+      <c r="C17" s="27">
         <v>213.767</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>185.40600000000001</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>181.68799999999999</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <f>817.704-SUM(C17:E17)</f>
         <v>236.84299999999996</v>
       </c>
-      <c r="G17" s="28">
-        <f t="shared" ref="G17:W17" si="22">+G15+G16</f>
+      <c r="G17" s="27">
+        <f t="shared" ref="G17:W17" si="21">+G15+G16</f>
         <v>233.76599999999999</v>
       </c>
-      <c r="H17" s="28">
-        <f t="shared" si="22"/>
+      <c r="H17" s="27">
+        <f t="shared" si="21"/>
         <v>209.11500000000001</v>
       </c>
-      <c r="I17" s="28">
-        <f t="shared" si="22"/>
+      <c r="I17" s="27">
+        <f t="shared" si="21"/>
         <v>195.584</v>
       </c>
-      <c r="J17" s="28">
-        <f t="shared" si="22"/>
+      <c r="J17" s="27">
+        <f t="shared" si="21"/>
         <v>248.07499999999999</v>
       </c>
-      <c r="K17" s="28">
-        <f t="shared" si="22"/>
+      <c r="K17" s="27">
+        <f t="shared" si="21"/>
         <v>252.51799999999997</v>
       </c>
-      <c r="L17" s="28">
-        <f t="shared" si="22"/>
+      <c r="L17" s="27">
+        <f t="shared" si="21"/>
         <v>221.87299999999999</v>
       </c>
-      <c r="M17" s="28">
-        <f t="shared" si="22"/>
+      <c r="M17" s="27">
+        <f t="shared" si="21"/>
         <v>213.006</v>
       </c>
-      <c r="N17" s="28">
-        <f t="shared" si="22"/>
+      <c r="N17" s="27">
+        <f t="shared" si="21"/>
         <v>250.61000000000007</v>
       </c>
-      <c r="O17" s="28">
-        <f t="shared" si="22"/>
+      <c r="O17" s="27">
+        <f t="shared" si="21"/>
         <v>247.60299999999998</v>
       </c>
-      <c r="P17" s="28">
-        <f t="shared" si="22"/>
+      <c r="P17" s="27">
+        <f t="shared" si="21"/>
         <v>85.790999999999997</v>
       </c>
-      <c r="Q17" s="28">
-        <f t="shared" si="22"/>
+      <c r="Q17" s="27">
+        <f t="shared" si="21"/>
         <v>122.91400000000002</v>
       </c>
-      <c r="R17" s="28">
-        <f t="shared" si="22"/>
+      <c r="R17" s="27">
+        <f t="shared" si="21"/>
         <v>207.08300000000003</v>
       </c>
-      <c r="S17" s="28">
-        <f t="shared" si="22"/>
+      <c r="S17" s="27">
+        <f t="shared" si="21"/>
         <v>232.916</v>
       </c>
-      <c r="T17" s="28">
-        <f t="shared" si="22"/>
+      <c r="T17" s="27">
+        <f t="shared" si="21"/>
         <v>191.78899999999999</v>
       </c>
-      <c r="U17" s="28">
-        <f t="shared" si="22"/>
+      <c r="U17" s="27">
+        <f t="shared" si="21"/>
         <v>162.178</v>
       </c>
-      <c r="V17" s="28">
-        <f t="shared" si="22"/>
+      <c r="V17" s="27">
+        <f t="shared" si="21"/>
         <v>247.76599999999996</v>
       </c>
-      <c r="W17" s="28">
-        <f t="shared" si="22"/>
+      <c r="W17" s="27">
+        <f t="shared" si="21"/>
         <v>258.40499999999997</v>
       </c>
-      <c r="X17" s="28">
+      <c r="X17" s="27">
         <f>+X15+X16</f>
         <v>221.84800000000001</v>
       </c>
-      <c r="Y17" s="28">
-        <f t="shared" ref="Y17:Z17" si="23">+Y15+Y16</f>
+      <c r="Y17" s="27">
+        <f t="shared" ref="Y17:Z17" si="22">+Y15+Y16</f>
         <v>220.64600000000002</v>
       </c>
-      <c r="Z17" s="28">
-        <f t="shared" si="23"/>
-        <v>250.24365999999998</v>
-      </c>
-      <c r="AC17" s="28">
+      <c r="Z17" s="27">
+        <f t="shared" si="22"/>
+        <v>251.20100000000002</v>
+      </c>
+      <c r="AA17" s="27">
+        <f t="shared" ref="AA17" si="23">+AA15+AA16</f>
+        <v>289.5</v>
+      </c>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AI17" s="27">
         <f>SUM(C17:F17)</f>
         <v>817.70399999999995</v>
       </c>
-      <c r="AD17" s="28">
-        <f t="shared" ref="AD17:AH17" si="24">+AD15+AD16</f>
+      <c r="AJ17" s="27">
+        <f t="shared" ref="AJ17:AN17" si="24">+AJ15+AJ16</f>
         <v>886.54</v>
       </c>
-      <c r="AE17" s="28">
+      <c r="AK17" s="27">
         <f t="shared" si="24"/>
         <v>938.00700000000006</v>
       </c>
-      <c r="AF17" s="28">
+      <c r="AL17" s="27">
         <f t="shared" si="24"/>
         <v>663.39100000000008</v>
       </c>
-      <c r="AG17" s="28">
+      <c r="AM17" s="27">
         <f t="shared" si="24"/>
         <v>834.649</v>
       </c>
-      <c r="AH17" s="28">
+      <c r="AN17" s="27">
         <f t="shared" si="24"/>
-        <v>951.14265999999998</v>
+        <v>952.1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
+    <row r="18" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
     </row>
-    <row r="19" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="34">
+    <row r="19" spans="1:45" s="19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="33">
         <f>G17/C17-1</f>
         <v>9.3555132457301626E-2</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <f t="shared" ref="H19:Z19" si="25">H17/D17-1</f>
         <v>0.12787612051389918</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <f t="shared" si="25"/>
         <v>7.6482761657346687E-2</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="33">
         <f t="shared" si="25"/>
         <v>4.7423820843343512E-2</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <f t="shared" si="25"/>
         <v>8.0216969105857849E-2</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="33">
         <f t="shared" si="25"/>
         <v>6.1009492384572983E-2</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <f t="shared" si="25"/>
         <v>8.9076816099476375E-2</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="33">
         <f t="shared" si="25"/>
         <v>1.0218683865766742E-2</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="33">
         <f t="shared" si="25"/>
         <v>-1.9463959004902609E-2</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="33">
         <f t="shared" si="25"/>
         <v>-0.6133328525778261</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <f t="shared" si="25"/>
         <v>-0.42295522191863133</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="33">
         <f t="shared" si="25"/>
         <v>-0.17368421052631589</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="33">
         <f t="shared" si="25"/>
         <v>-5.9316728795693052E-2</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="33">
         <f t="shared" si="25"/>
         <v>1.2355375272464477</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="33">
         <f t="shared" si="25"/>
         <v>0.31944286248921983</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="33">
         <f t="shared" si="25"/>
         <v>0.19645745908645296</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="33">
         <f t="shared" si="25"/>
         <v>0.10943430249532016</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19" s="33">
         <f t="shared" si="25"/>
         <v>0.15672953089071862</v>
       </c>
-      <c r="Y19" s="34">
+      <c r="Y19" s="33">
         <f t="shared" si="25"/>
         <v>0.36051745612845165</v>
       </c>
-      <c r="Z19" s="34">
+      <c r="Z19" s="33">
         <f t="shared" si="25"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="35">
-        <f t="shared" ref="AD19:AH19" si="26">AD17/AC17-1</f>
+        <v>1.3863887700491739E-2</v>
+      </c>
+      <c r="AA19" s="33">
+        <f t="shared" ref="AA19" si="26">AA17/W17-1</f>
+        <v>0.12033435885528543</v>
+      </c>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="34">
+        <f t="shared" ref="AJ19:AN19" si="27">AJ17/AI17-1</f>
         <v>8.4182051206793673E-2</v>
       </c>
-      <c r="AE19" s="35">
-        <f t="shared" si="26"/>
+      <c r="AK19" s="34">
+        <f t="shared" si="27"/>
         <v>5.8053782119250164E-2</v>
       </c>
-      <c r="AF19" s="35">
-        <f t="shared" si="26"/>
+      <c r="AL19" s="34">
+        <f t="shared" si="27"/>
         <v>-0.2927654058018756</v>
       </c>
-      <c r="AG19" s="35">
-        <f t="shared" si="26"/>
+      <c r="AM19" s="34">
+        <f t="shared" si="27"/>
         <v>0.25815544678779156</v>
       </c>
-      <c r="AH19" s="35">
-        <f t="shared" si="26"/>
-        <v>0.13957203567008403</v>
+      <c r="AN19" s="34">
+        <f t="shared" si="27"/>
+        <v>0.14071903279102949</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -3280,10 +3462,16 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
     </row>
-    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="s">
-        <v>85</v>
+    <row r="21" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3327,33 +3515,41 @@
         <v>67.375</v>
       </c>
       <c r="Z21" s="12">
-        <f t="shared" ref="Z21:Z22" si="27">V21*1.01</f>
-        <v>69.668789999999987</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" ref="AD21:AD22" si="28">SUM(G21:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2">
+        <f>297.9-SUM(W21:Y21)</f>
+        <v>91.798999999999978</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>76.2</v>
+      </c>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AJ21" s="2">
+        <f t="shared" ref="AJ21:AJ22" si="28">SUM(G21:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2">
         <f>SUM(K21:N21)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="2">
-        <f t="shared" ref="AF21:AF22" si="29">SUM(O21:R21)</f>
+      <c r="AL21" s="2">
+        <f t="shared" ref="AL21:AL22" si="29">SUM(O21:R21)</f>
         <v>154.435</v>
       </c>
-      <c r="AG21" s="2">
-        <f t="shared" ref="AG21:AG22" si="30">SUM(S21:V21)</f>
+      <c r="AM21" s="2">
+        <f t="shared" ref="AM21:AM22" si="30">SUM(S21:V21)</f>
         <v>206.90100000000001</v>
       </c>
-      <c r="AH21" s="2">
-        <f t="shared" ref="AH21:AH22" si="31">SUM(W21:Z21)</f>
-        <v>275.76979</v>
+      <c r="AN21" s="2">
+        <f t="shared" ref="AN21:AN22" si="31">SUM(W21:Z21)</f>
+        <v>297.89999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="s">
-        <v>86</v>
+    <row r="22" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3397,604 +3593,666 @@
         <v>33.743000000000002</v>
       </c>
       <c r="Z22" s="12">
-        <f t="shared" si="27"/>
-        <v>30.095980000000001</v>
-      </c>
-      <c r="AD22" s="2">
+        <f>134-SUM(W22:Y22)</f>
+        <v>34.965000000000003</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>45.1</v>
+      </c>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AJ22" s="2">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="2">
-        <f t="shared" ref="AE22" si="32">SUM(K22:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2">
+      <c r="AK22" s="2">
+        <f t="shared" ref="AK22" si="32">SUM(K22:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
         <f t="shared" si="29"/>
         <v>55.12</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AM22" s="2">
         <f t="shared" si="30"/>
         <v>83.542000000000002</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AN22" s="2">
         <f t="shared" si="31"/>
-        <v>129.13097999999999</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="28">
+        <v>86</v>
+      </c>
+      <c r="C23" s="27">
         <f t="shared" ref="C23:W23" si="33">+C21+C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="27">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="27">
         <f t="shared" si="33"/>
         <v>209.55500000000001</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="27">
         <f t="shared" si="33"/>
         <v>49.847999999999999</v>
       </c>
-      <c r="T23" s="28">
+      <c r="T23" s="27">
         <f t="shared" si="33"/>
         <v>67.861000000000004</v>
       </c>
-      <c r="U23" s="28">
+      <c r="U23" s="27">
         <f t="shared" si="33"/>
         <v>73.956999999999994</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="27">
         <f t="shared" si="33"/>
         <v>98.776999999999987</v>
       </c>
-      <c r="W23" s="28">
+      <c r="W23" s="27">
         <f t="shared" si="33"/>
         <v>97.948000000000008</v>
       </c>
-      <c r="X23" s="28">
+      <c r="X23" s="27">
         <f>+X21+X22</f>
         <v>106.07</v>
       </c>
-      <c r="Y23" s="28">
+      <c r="Y23" s="27">
         <f t="shared" ref="Y23:Z23" si="34">+Y21+Y22</f>
         <v>101.11799999999999</v>
       </c>
-      <c r="Z23" s="28">
-        <f t="shared" si="34"/>
-        <v>99.764769999999984</v>
-      </c>
-      <c r="AC23" s="28">
-        <f t="shared" ref="AC23:AH23" si="35">+AC21+AC22</f>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="28">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="28">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="28">
-        <f t="shared" si="35"/>
+      <c r="Z23" s="27">
+        <f>+Z21+Z22</f>
+        <v>126.76399999999998</v>
+      </c>
+      <c r="AA23" s="27">
+        <f t="shared" ref="AA23" si="35">+AA21+AA22</f>
+        <v>121.30000000000001</v>
+      </c>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AI23" s="27">
+        <f t="shared" ref="AI23:AN23" si="36">+AI21+AI22</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="27">
+        <f t="shared" si="36"/>
         <v>209.55500000000001</v>
       </c>
-      <c r="AG23" s="28">
-        <f t="shared" si="35"/>
+      <c r="AM23" s="27">
+        <f t="shared" si="36"/>
         <v>290.44299999999998</v>
       </c>
-      <c r="AH23" s="28">
-        <f t="shared" si="35"/>
-        <v>404.90076999999997</v>
+      <c r="AN23" s="27">
+        <f t="shared" si="36"/>
+        <v>431.9</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
+    <row r="24" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
     </row>
-    <row r="25" spans="1:37" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34" t="e">
+    <row r="25" spans="1:45" s="31" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33" t="e">
         <f>G23/C23-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="34" t="e">
-        <f t="shared" ref="H25:Z25" si="36">H23/D23-1</f>
+      <c r="H25" s="33" t="e">
+        <f t="shared" ref="H25:Z25" si="37">H23/D23-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="34" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="34">
-        <f t="shared" si="36"/>
-        <v>-0.52863448736608531</v>
-      </c>
-      <c r="W25" s="34">
-        <f t="shared" si="36"/>
-        <v>0.96493339752848684</v>
-      </c>
-      <c r="X25" s="34">
-        <f t="shared" si="36"/>
-        <v>0.56304799516659032</v>
-      </c>
-      <c r="Y25" s="34">
-        <f t="shared" si="36"/>
-        <v>0.36725394485985108</v>
-      </c>
-      <c r="Z25" s="34">
-        <f t="shared" si="36"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="35" t="e">
-        <f t="shared" ref="AD25:AH25" si="37">AD23/AC23-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE25" s="35" t="e">
+      <c r="I25" s="33" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF25" s="35" t="e">
+      <c r="J25" s="33" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG25" s="35">
+      <c r="K25" s="33" t="e">
         <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="33" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="33">
+        <f t="shared" si="37"/>
+        <v>-0.52863448736608531</v>
+      </c>
+      <c r="W25" s="33">
+        <f t="shared" si="37"/>
+        <v>0.96493339752848684</v>
+      </c>
+      <c r="X25" s="33">
+        <f t="shared" si="37"/>
+        <v>0.56304799516659032</v>
+      </c>
+      <c r="Y25" s="33">
+        <f t="shared" si="37"/>
+        <v>0.36725394485985108</v>
+      </c>
+      <c r="Z25" s="33">
+        <f t="shared" si="37"/>
+        <v>0.28333518936594548</v>
+      </c>
+      <c r="AA25" s="33">
+        <f t="shared" ref="AA25" si="38">AA23/W23-1</f>
+        <v>0.23841221872830487</v>
+      </c>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="34" t="e">
+        <f t="shared" ref="AJ25:AN25" si="39">AJ23/AI23-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="34" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL25" s="34" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM25" s="34">
+        <f t="shared" si="39"/>
         <v>0.38599890243611457</v>
       </c>
-      <c r="AH25" s="35">
-        <f t="shared" si="37"/>
-        <v>0.39407997438395825</v>
+      <c r="AN25" s="34">
+        <f t="shared" si="39"/>
+        <v>0.48703876492117204</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
+    <row r="26" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
     </row>
-    <row r="27" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="28">
-        <f t="shared" ref="C27:W27" si="38">C3+C9+C15+C21</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="28">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="28">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="28">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="28">
-        <f t="shared" si="38"/>
+        <v>88</v>
+      </c>
+      <c r="C27" s="27">
+        <f t="shared" ref="C27:W27" si="40">C3+C9+C15+C21</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="40"/>
         <v>828.24</v>
       </c>
-      <c r="H27" s="28">
-        <f t="shared" si="38"/>
+      <c r="H27" s="27">
+        <f t="shared" si="40"/>
         <v>785.95399999999995</v>
       </c>
-      <c r="I27" s="28">
-        <f t="shared" si="38"/>
+      <c r="I27" s="27">
+        <f t="shared" si="40"/>
         <v>934.11199999999997</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="38"/>
+      <c r="J27" s="27">
+        <f t="shared" si="40"/>
         <v>1051.8609999999999</v>
       </c>
-      <c r="K27" s="28">
-        <f t="shared" si="38"/>
+      <c r="K27" s="27">
+        <f t="shared" si="40"/>
         <v>869.30899999999997</v>
       </c>
-      <c r="L27" s="28">
-        <f t="shared" si="38"/>
+      <c r="L27" s="27">
+        <f t="shared" si="40"/>
         <v>811.67399999999998</v>
       </c>
-      <c r="M27" s="28">
-        <f t="shared" si="38"/>
+      <c r="M27" s="27">
+        <f t="shared" si="40"/>
         <v>942.81200000000013</v>
       </c>
-      <c r="N27" s="28">
-        <f t="shared" si="38"/>
+      <c r="N27" s="27">
+        <f t="shared" si="40"/>
         <v>1036.7240000000002</v>
       </c>
-      <c r="O27" s="28">
-        <f t="shared" si="38"/>
+      <c r="O27" s="27">
+        <f t="shared" si="40"/>
         <v>876.32399999999984</v>
       </c>
-      <c r="P27" s="28">
-        <f t="shared" si="38"/>
+      <c r="P27" s="27">
+        <f t="shared" si="40"/>
         <v>300.726</v>
       </c>
-      <c r="Q27" s="28">
-        <f t="shared" si="38"/>
+      <c r="Q27" s="27">
+        <f t="shared" si="40"/>
         <v>668.79000000000008</v>
       </c>
-      <c r="R27" s="28">
-        <f t="shared" si="38"/>
+      <c r="R27" s="27">
+        <f t="shared" si="40"/>
         <v>877.46499999999992</v>
       </c>
-      <c r="S27" s="28">
-        <f t="shared" si="38"/>
+      <c r="S27" s="27">
+        <f t="shared" si="40"/>
         <v>838.75900000000001</v>
       </c>
-      <c r="T27" s="28">
-        <f t="shared" si="38"/>
+      <c r="T27" s="27">
+        <f t="shared" si="40"/>
         <v>802.48399999999992</v>
       </c>
-      <c r="U27" s="28">
-        <f t="shared" si="38"/>
+      <c r="U27" s="27">
+        <f t="shared" si="40"/>
         <v>970.71600000000001</v>
       </c>
-      <c r="V27" s="28">
-        <f t="shared" si="38"/>
+      <c r="V27" s="27">
+        <f t="shared" si="40"/>
         <v>1049.4429999999998</v>
       </c>
-      <c r="W27" s="28">
-        <f t="shared" si="38"/>
+      <c r="W27" s="27">
+        <f t="shared" si="40"/>
         <v>963.07</v>
       </c>
-      <c r="X27" s="28">
+      <c r="X27" s="27">
         <f>X3+X9+X15+X21</f>
         <v>920.49199999999996</v>
       </c>
-      <c r="Y27" s="28">
-        <f t="shared" ref="Y27:Z27" si="39">Y3+Y9+Y15+Y21</f>
+      <c r="Y27" s="27">
+        <f t="shared" ref="Y27:Z27" si="41">Y3+Y9+Y15+Y21</f>
         <v>980.96999999999991</v>
       </c>
-      <c r="Z27" s="28">
-        <f t="shared" si="39"/>
-        <v>1059.9374299999997</v>
-      </c>
-      <c r="AC27" s="28">
-        <f t="shared" ref="AC27:AF27" si="40">AC3+AC9+AC15+AC21</f>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="28">
-        <f t="shared" si="40"/>
+      <c r="Z27" s="27">
+        <f t="shared" si="41"/>
+        <v>965.16799999999967</v>
+      </c>
+      <c r="AA27" s="27">
+        <f t="shared" ref="AA27" si="42">AA3+AA9+AA15+AA21</f>
+        <v>984.90000000000009</v>
+      </c>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AI27" s="27">
+        <f t="shared" ref="AI27:AL27" si="43">AI3+AI9+AI15+AI21</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="27">
+        <f t="shared" si="43"/>
         <v>3600.1669999999999</v>
       </c>
-      <c r="AE27" s="28">
-        <f t="shared" si="40"/>
+      <c r="AK27" s="27">
+        <f t="shared" si="43"/>
         <v>3660.5190000000002</v>
       </c>
-      <c r="AF27" s="28">
-        <f t="shared" si="40"/>
+      <c r="AL27" s="27">
+        <f t="shared" si="43"/>
         <v>2723.3049999999998</v>
       </c>
-      <c r="AG27" s="28">
-        <f>AG3+AG9+AG15+AG21</f>
+      <c r="AM27" s="27">
+        <f>AM3+AM9+AM15+AM21</f>
         <v>3661.402</v>
       </c>
-      <c r="AH27" s="28">
-        <f>AH3+AH9+AH15+AH21</f>
-        <v>3924.4694299999996</v>
+      <c r="AN27" s="27">
+        <f>AN3+AN9+AN15+AN21</f>
+        <v>3829.7000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="28">
-        <f t="shared" ref="C28:W28" si="41">C4+C10+C16+C22</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="28">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="28">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="28">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="28">
-        <f t="shared" si="41"/>
+        <v>89</v>
+      </c>
+      <c r="C28" s="27">
+        <f t="shared" ref="C28:W28" si="44">C4+C10+C16+C22</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="27">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="44"/>
         <v>515.44500000000005</v>
       </c>
-      <c r="H28" s="28">
-        <f t="shared" si="41"/>
+      <c r="H28" s="27">
+        <f t="shared" si="44"/>
         <v>459.78800000000001</v>
       </c>
-      <c r="I28" s="28">
-        <f t="shared" si="41"/>
+      <c r="I28" s="27">
+        <f t="shared" si="44"/>
         <v>460.041</v>
       </c>
-      <c r="J28" s="28">
-        <f t="shared" si="41"/>
+      <c r="J28" s="27">
+        <f t="shared" si="44"/>
         <v>539.99900000000002</v>
       </c>
-      <c r="K28" s="28">
-        <f t="shared" si="41"/>
+      <c r="K28" s="27">
+        <f t="shared" si="44"/>
         <v>565.149</v>
       </c>
-      <c r="L28" s="28">
-        <f t="shared" si="41"/>
+      <c r="L28" s="27">
+        <f t="shared" si="44"/>
         <v>501.26600000000002</v>
       </c>
-      <c r="M28" s="28">
-        <f t="shared" si="41"/>
+      <c r="M28" s="27">
+        <f t="shared" si="44"/>
         <v>504.26900000000001</v>
       </c>
-      <c r="N28" s="28">
-        <f t="shared" si="41"/>
+      <c r="N28" s="27">
+        <f t="shared" si="44"/>
         <v>531.88400000000001</v>
       </c>
-      <c r="O28" s="28">
-        <f t="shared" si="41"/>
+      <c r="O28" s="27">
+        <f t="shared" si="44"/>
         <v>629.80200000000002</v>
       </c>
-      <c r="P28" s="28">
-        <f t="shared" si="41"/>
+      <c r="P28" s="27">
+        <f t="shared" si="44"/>
         <v>196.816</v>
       </c>
-      <c r="Q28" s="28">
-        <f t="shared" si="41"/>
+      <c r="Q28" s="27">
+        <f t="shared" si="44"/>
         <v>394.29500000000002</v>
       </c>
-      <c r="R28" s="28">
-        <f t="shared" si="41"/>
+      <c r="R28" s="27">
+        <f t="shared" si="44"/>
         <v>508.39100000000002</v>
       </c>
-      <c r="S28" s="28">
-        <f t="shared" si="41"/>
+      <c r="S28" s="27">
+        <f t="shared" si="44"/>
         <v>466.84299999999996</v>
       </c>
-      <c r="T28" s="28">
-        <f t="shared" si="41"/>
+      <c r="T28" s="27">
+        <f t="shared" si="44"/>
         <v>473.48700000000008</v>
       </c>
-      <c r="U28" s="28">
-        <f t="shared" si="41"/>
+      <c r="U28" s="27">
+        <f t="shared" si="44"/>
         <v>526.86599999999999</v>
       </c>
-      <c r="V28" s="28">
-        <f t="shared" si="41"/>
+      <c r="V28" s="27">
+        <f t="shared" si="44"/>
         <v>635.33799999999997</v>
       </c>
-      <c r="W28" s="28">
-        <f t="shared" si="41"/>
+      <c r="W28" s="27">
+        <f t="shared" si="44"/>
         <v>628.49199999999996</v>
       </c>
-      <c r="X28" s="28">
+      <c r="X28" s="27">
         <f>X4+X10+X16+X22</f>
         <v>550.65700000000004</v>
       </c>
-      <c r="Y28" s="28">
-        <f t="shared" ref="Y28:Z28" si="42">Y4+Y10+Y16+Y22</f>
+      <c r="Y28" s="27">
+        <f t="shared" ref="Y28:Z28" si="45">Y4+Y10+Y16+Y22</f>
         <v>536.18000000000006</v>
       </c>
-      <c r="Z28" s="28">
-        <f t="shared" si="42"/>
-        <v>641.69137999999998</v>
-      </c>
-      <c r="AC28" s="28">
-        <f t="shared" ref="AC28:AF28" si="43">AC4+AC10+AC16+AC22</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="28">
-        <f t="shared" si="43"/>
+      <c r="Z28" s="27">
+        <f t="shared" si="45"/>
+        <v>623.57100000000003</v>
+      </c>
+      <c r="AA28" s="27">
+        <f t="shared" ref="AA28" si="46">AA4+AA10+AA16+AA22</f>
+        <v>704</v>
+      </c>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AI28" s="27">
+        <f t="shared" ref="AI28:AL28" si="47">AI4+AI10+AI16+AI22</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="27">
+        <f t="shared" si="47"/>
         <v>1975.2730000000001</v>
       </c>
-      <c r="AE28" s="28">
-        <f t="shared" si="43"/>
+      <c r="AK28" s="27">
+        <f t="shared" si="47"/>
         <v>2102.5680000000002</v>
       </c>
-      <c r="AF28" s="28">
-        <f t="shared" si="43"/>
+      <c r="AL28" s="27">
+        <f t="shared" si="47"/>
         <v>1729.3039999999999</v>
       </c>
-      <c r="AG28" s="28">
-        <f>AG4+AG10+AG16+AG22</f>
+      <c r="AM28" s="27">
+        <f>AM4+AM10+AM16+AM22</f>
         <v>2102.5340000000001</v>
       </c>
-      <c r="AH28" s="28">
-        <f>AH4+AH10+AH16+AH22</f>
-        <v>2357.0203799999999</v>
+      <c r="AN28" s="27">
+        <f>AN4+AN10+AN16+AN22</f>
+        <v>2338.9</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
+    <row r="29" spans="1:45" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
     </row>
-    <row r="30" spans="1:37" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="20">
         <f>C5+C11+C17</f>
@@ -4013,71 +4271,71 @@
         <v>1465.7930000000001</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" ref="G30:W30" si="44">G27+G28</f>
+        <f t="shared" ref="G30:W30" si="48">G27+G28</f>
         <v>1343.6849999999999</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1245.742</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1394.153</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1591.86</v>
       </c>
       <c r="K30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1434.4580000000001</v>
       </c>
       <c r="L30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1312.94</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1447.0810000000001</v>
       </c>
       <c r="N30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1568.6080000000002</v>
       </c>
       <c r="O30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1506.1259999999997</v>
       </c>
       <c r="P30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>497.54200000000003</v>
       </c>
       <c r="Q30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1063.085</v>
       </c>
       <c r="R30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1385.856</v>
       </c>
       <c r="S30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1305.6019999999999</v>
       </c>
       <c r="T30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1275.971</v>
       </c>
       <c r="U30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1497.5819999999999</v>
       </c>
       <c r="V30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1684.7809999999997</v>
       </c>
       <c r="W30" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1591.5619999999999</v>
       </c>
       <c r="X30" s="20">
@@ -4090,46 +4348,62 @@
       </c>
       <c r="Z30" s="20">
         <f>Z27+Z28</f>
-        <v>1701.6288099999997</v>
+        <v>1588.7389999999996</v>
+      </c>
+      <c r="AA30" s="20">
+        <f>AA27+AA28</f>
+        <v>1688.9</v>
+      </c>
+      <c r="AB30" s="20">
+        <f>X30*1.04</f>
+        <v>1529.99496</v>
       </c>
       <c r="AC30" s="20">
-        <f>AC5+AC11+AC17</f>
+        <f t="shared" ref="AC30:AD30" si="49">Y30*1.04</f>
+        <v>1577.8360000000002</v>
+      </c>
+      <c r="AD30" s="20">
+        <f t="shared" si="49"/>
+        <v>1652.2885599999995</v>
+      </c>
+      <c r="AI30" s="20">
+        <f>AI5+AI11+AI17</f>
         <v>4904.03</v>
       </c>
-      <c r="AD30" s="20">
-        <f t="shared" ref="AD30:AF30" si="45">AD27+AD28</f>
+      <c r="AJ30" s="20">
+        <f t="shared" ref="AJ30:AL30" si="50">AJ27+AJ28</f>
         <v>5575.4400000000005</v>
       </c>
-      <c r="AE30" s="20">
-        <f t="shared" si="45"/>
+      <c r="AK30" s="20">
+        <f t="shared" si="50"/>
         <v>5763.0870000000004</v>
       </c>
-      <c r="AF30" s="20">
-        <f t="shared" si="45"/>
+      <c r="AL30" s="20">
+        <f t="shared" si="50"/>
         <v>4452.6089999999995</v>
       </c>
-      <c r="AG30" s="20">
-        <f>AG27+AG28</f>
+      <c r="AM30" s="20">
+        <f>AM27+AM28</f>
         <v>5763.9359999999997</v>
       </c>
-      <c r="AH30" s="20">
-        <f>AH27+AH28</f>
-        <v>6281.4898099999991</v>
-      </c>
-      <c r="AI30" s="20">
-        <f>AH30*1.05</f>
-        <v>6595.5643004999993</v>
-      </c>
-      <c r="AJ30" s="20">
-        <f t="shared" ref="AJ30:AK30" si="46">AI30*1.05</f>
-        <v>6925.3425155249997</v>
-      </c>
-      <c r="AK30" s="20">
-        <f t="shared" si="46"/>
-        <v>7271.6096413012501</v>
+      <c r="AN30" s="20">
+        <f>AN27+AN28</f>
+        <v>6168.6</v>
+      </c>
+      <c r="AO30" s="20">
+        <f>SUM(AA30:AD30)</f>
+        <v>6449.0195199999998</v>
+      </c>
+      <c r="AP30" s="20">
+        <f t="shared" ref="AP30:AQ30" si="51">AO30*1.05</f>
+        <v>6771.4704959999999</v>
+      </c>
+      <c r="AQ30" s="20">
+        <f t="shared" si="51"/>
+        <v>7110.0440208</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -4143,7 +4417,7 @@
         <v>611.76199999999994</v>
       </c>
       <c r="F31" s="2">
-        <f>AC31-SUM(C31:E31)</f>
+        <f>AI31-SUM(C31:E31)</f>
         <v>682.63799999999992</v>
       </c>
       <c r="G31" s="2">
@@ -4156,7 +4430,7 @@
         <v>652.59100000000001</v>
       </c>
       <c r="J31" s="2">
-        <f>AD31-SUM(G31:I31)</f>
+        <f>AJ31-SUM(G31:I31)</f>
         <v>744.44800000000032</v>
       </c>
       <c r="K31" s="2">
@@ -4169,7 +4443,7 @@
         <v>680.33500000000004</v>
       </c>
       <c r="N31" s="2">
-        <f>AE31-SUM(K31:M31)</f>
+        <f>AK31-SUM(K31:M31)</f>
         <v>717.21199999999999</v>
       </c>
       <c r="O31" s="2">
@@ -4206,110 +4480,124 @@
         <v>654.26900000000001</v>
       </c>
       <c r="Z31" s="2">
-        <f>V31*1.03</f>
-        <v>731.76865000000009</v>
+        <v>701.4</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>746.6</v>
+      </c>
+      <c r="AB31" s="2">
+        <f>X31*1.03</f>
+        <v>634.60978</v>
       </c>
       <c r="AC31" s="2">
+        <f t="shared" ref="AC30:AD31" si="52">Y31*1.03</f>
+        <v>673.89706999999999</v>
+      </c>
+      <c r="AD31" s="2">
+        <f t="shared" si="52"/>
+        <v>722.44200000000001</v>
+      </c>
+      <c r="AI31" s="2">
         <v>2341.3009999999999</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AJ31" s="2">
         <v>2577.4650000000001</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AK31" s="2">
         <v>2661.7139999999999</v>
       </c>
-      <c r="AF31" s="24">
+      <c r="AL31" s="24">
         <f>SUM(O31:R31)</f>
         <v>2099.6849999999999</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AM31" s="2">
         <f>SUM(S31:V31)</f>
         <v>2417.2249999999999</v>
       </c>
-      <c r="AH31" s="2">
+      <c r="AN31" s="2">
         <f>SUM(W31:Z31)</f>
-        <v>2650.1176500000001</v>
-      </c>
-      <c r="AI31" s="25">
-        <f>AH31*1.06</f>
-        <v>2809.1247090000002</v>
-      </c>
-      <c r="AJ31" s="25">
-        <f t="shared" ref="AJ31:AK31" si="47">AI31*1.06</f>
-        <v>2977.6721915400003</v>
-      </c>
-      <c r="AK31" s="25">
-        <f t="shared" si="47"/>
-        <v>3156.3325230324003</v>
+        <v>2619.7489999999998</v>
+      </c>
+      <c r="AO31" s="25">
+        <f>SUM(AA31:AD31)</f>
+        <v>2777.5488500000001</v>
+      </c>
+      <c r="AP31" s="25">
+        <f t="shared" ref="AP31:AQ31" si="53">AO31*1.06</f>
+        <v>2944.2017810000002</v>
+      </c>
+      <c r="AQ31" s="25">
+        <f t="shared" si="53"/>
+        <v>3120.8538878600002</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="20">
-        <f t="shared" ref="C32:Z32" si="48">+C30-C31</f>
+        <f t="shared" ref="C32:AD32" si="54">+C30-C31</f>
         <v>564.553</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>558.39200000000005</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>656.62900000000013</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>783.1550000000002</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>738.12399999999991</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>670.87699999999995</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>741.56200000000001</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>847.41199999999958</v>
       </c>
       <c r="K32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>782.80800000000011</v>
       </c>
       <c r="L32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>700.423</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>766.74600000000009</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>851.39600000000019</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>839.32699999999977</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>169.65200000000004</v>
       </c>
       <c r="Q32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>577.39800000000002</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>766.54700000000003</v>
       </c>
       <c r="S32" s="20">
@@ -4317,71 +4605,95 @@
         <v>760.02899999999988</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>750.20100000000002</v>
       </c>
       <c r="U32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>862.15499999999986</v>
       </c>
       <c r="V32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>974.32599999999968</v>
       </c>
       <c r="W32" s="20">
-        <f t="shared" ref="W32" si="49">+W30-W31</f>
+        <f t="shared" ref="W32" si="55">+W30-W31</f>
         <v>943.60799999999995</v>
       </c>
       <c r="X32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>855.02299999999991</v>
       </c>
       <c r="Y32" s="20">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>862.88100000000009</v>
       </c>
       <c r="Z32" s="20">
-        <f t="shared" si="48"/>
-        <v>969.86015999999961</v>
+        <f t="shared" si="54"/>
+        <v>887.3389999999996</v>
+      </c>
+      <c r="AA32" s="20">
+        <f t="shared" si="54"/>
+        <v>942.30000000000007</v>
+      </c>
+      <c r="AB32" s="20">
+        <f t="shared" si="54"/>
+        <v>895.38517999999999</v>
       </c>
       <c r="AC32" s="20">
-        <f>+AC30-AC31</f>
+        <f t="shared" si="54"/>
+        <v>903.93893000000025</v>
+      </c>
+      <c r="AD32" s="20">
+        <f t="shared" si="54"/>
+        <v>929.8465599999995</v>
+      </c>
+      <c r="AI32" s="20">
+        <f>+AI30-AI31</f>
         <v>2562.7289999999998</v>
       </c>
-      <c r="AD32" s="20">
-        <f t="shared" ref="AD32:AK32" si="50">+AD30-AD31</f>
+      <c r="AJ32" s="20">
+        <f t="shared" ref="AJ32:AS32" si="56">+AJ30-AJ31</f>
         <v>2997.9750000000004</v>
       </c>
-      <c r="AE32" s="20">
-        <f t="shared" si="50"/>
+      <c r="AK32" s="20">
+        <f t="shared" si="56"/>
         <v>3101.3730000000005</v>
       </c>
-      <c r="AF32" s="20">
-        <f>+AF30-AF31</f>
+      <c r="AL32" s="20">
+        <f>+AL30-AL31</f>
         <v>2352.9239999999995</v>
       </c>
-      <c r="AG32" s="20">
-        <f>+AG30-AG31</f>
+      <c r="AM32" s="20">
+        <f>+AM30-AM31</f>
         <v>3346.7109999999998</v>
       </c>
-      <c r="AH32" s="20">
-        <f>+AH30-AH31</f>
-        <v>3631.372159999999</v>
-      </c>
-      <c r="AI32" s="20">
-        <f t="shared" si="50"/>
-        <v>3786.4395914999991</v>
-      </c>
-      <c r="AJ32" s="20">
-        <f t="shared" si="50"/>
-        <v>3947.6703239849994</v>
-      </c>
-      <c r="AK32" s="20">
-        <f t="shared" si="50"/>
-        <v>4115.2771182688502</v>
+      <c r="AN32" s="20">
+        <f>+AN30-AN31</f>
+        <v>3548.8510000000006</v>
+      </c>
+      <c r="AO32" s="20">
+        <f t="shared" si="56"/>
+        <v>3671.4706699999997</v>
+      </c>
+      <c r="AP32" s="20">
+        <f t="shared" si="56"/>
+        <v>3827.2687149999997</v>
+      </c>
+      <c r="AQ32" s="20">
+        <f t="shared" si="56"/>
+        <v>3989.1901329399998</v>
+      </c>
+      <c r="AR32" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AS32" s="20">
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
@@ -4395,7 +4707,7 @@
         <v>510.30900000000003</v>
       </c>
       <c r="F33" s="2">
-        <f>AC33-SUM(C33:E33)</f>
+        <f>AI33-SUM(C33:E33)</f>
         <v>633.29700000000003</v>
       </c>
       <c r="G33" s="2">
@@ -4408,7 +4720,7 @@
         <v>582.95299999999997</v>
       </c>
       <c r="J33" s="2">
-        <f>AD33-SUM(G33:I33)</f>
+        <f>AJ33-SUM(G33:I33)</f>
         <v>716.23299999999995</v>
       </c>
       <c r="K33" s="2">
@@ -4421,7 +4733,7 @@
         <v>595.52800000000002</v>
       </c>
       <c r="N33" s="2">
-        <f>AE33-SUM(K33:M33)</f>
+        <f>AK33-SUM(K33:M33)</f>
         <v>719.74900000000002</v>
       </c>
       <c r="O33" s="2">
@@ -4458,44 +4770,58 @@
         <v>663.75300000000004</v>
       </c>
       <c r="Z33" s="2">
-        <f>V33*1.08</f>
-        <v>854.10612000000015</v>
+        <v>737.9</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>784.9</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" ref="AB33:AB34" si="57">X33*1.03</f>
+        <v>802.22271000000001</v>
       </c>
       <c r="AC33" s="2">
+        <f t="shared" ref="AC33:AC34" si="58">Y33*1.03</f>
+        <v>683.66559000000007</v>
+      </c>
+      <c r="AD33" s="2">
+        <f t="shared" ref="AD33:AD34" si="59">Z33*1.03</f>
+        <v>760.03700000000003</v>
+      </c>
+      <c r="AI33" s="2">
         <v>2095.56</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AJ33" s="2">
         <v>2457.5639999999999</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AK33" s="2">
         <v>2534.6979999999999</v>
       </c>
-      <c r="AF33" s="24">
+      <c r="AL33" s="24">
         <f>SUM(O33:R33)</f>
         <v>2347.6279999999997</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AM33" s="2">
         <f>SUM(S33:V33)</f>
         <v>2651.4360000000001</v>
       </c>
-      <c r="AH33" s="2">
-        <f t="shared" ref="AH33:AH34" si="51">SUM(W33:Z33)</f>
-        <v>3006.0921200000003</v>
-      </c>
-      <c r="AI33" s="25">
-        <f>AH33*1.05</f>
-        <v>3156.3967260000004</v>
-      </c>
-      <c r="AJ33" s="2">
-        <f t="shared" ref="AJ33:AK33" si="52">AI33*1.05</f>
-        <v>3314.2165623000005</v>
-      </c>
-      <c r="AK33" s="2">
-        <f t="shared" si="52"/>
-        <v>3479.9273904150009</v>
+      <c r="AN33" s="2">
+        <f>SUM(W33:Z33)</f>
+        <v>2889.886</v>
+      </c>
+      <c r="AO33" s="25">
+        <f t="shared" ref="AO33:AO34" si="60">SUM(AA33:AD33)</f>
+        <v>3030.8253000000004</v>
+      </c>
+      <c r="AP33" s="2">
+        <f t="shared" ref="AP33:AQ33" si="61">AO33*1.05</f>
+        <v>3182.3665650000007</v>
+      </c>
+      <c r="AQ33" s="2">
+        <f t="shared" si="61"/>
+        <v>3341.4848932500008</v>
       </c>
     </row>
-    <row r="34" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B34" s="23" t="s">
         <v>74</v>
       </c>
@@ -4569,121 +4895,137 @@
         <v>0</v>
       </c>
       <c r="Z34" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AC34" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <f t="shared" si="59"/>
+        <v>12.772</v>
+      </c>
+      <c r="AI34" s="2">
         <f>SUM(C34:F34)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AJ34" s="2">
         <f>SUM(G34:J34)</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AK34" s="2">
         <f>SUM(K34:N34)</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="24">
+      <c r="AL34" s="24">
         <f>SUM(O34:R34)</f>
         <v>90.414999999999992</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AM34" s="2">
         <f>SUM(S34:V34)</f>
         <v>9.0640000000000001</v>
       </c>
-      <c r="AH34" s="2">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="2">
+      <c r="AN34" s="2">
+        <f>SUM(W34:Z34)</f>
+        <v>12.4</v>
+      </c>
+      <c r="AO34" s="25">
+        <f t="shared" si="60"/>
+        <v>12.772</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:265" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:273" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="20">
-        <f t="shared" ref="C35:U35" si="53">+C33+C34</f>
+        <f t="shared" ref="C35:U35" si="62">+C33+C34</f>
         <v>456.21300000000002</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>495.74099999999999</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>510.30900000000003</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>633.29700000000003</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>564.02499999999998</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>594.35299999999995</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>582.95299999999997</v>
       </c>
       <c r="J35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>716.23299999999995</v>
       </c>
       <c r="K35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>581.89599999999996</v>
       </c>
       <c r="L35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>637.52499999999998</v>
       </c>
       <c r="M35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>595.52800000000002</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>719.74900000000002</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>660.54499999999996</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>617.89599999999996</v>
       </c>
       <c r="Q35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>485.07300000000004</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>674.529</v>
       </c>
       <c r="S35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>582.90599999999995</v>
       </c>
       <c r="T35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>643.74599999999998</v>
       </c>
       <c r="U35" s="20">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>645.84500000000003</v>
       </c>
       <c r="V35" s="20">
@@ -4691,125 +5033,149 @@
         <v>788.00300000000004</v>
       </c>
       <c r="W35" s="20">
-        <f t="shared" ref="W35:Z35" si="54">+W33+W34</f>
+        <f t="shared" ref="W35:Z35" si="63">+W33+W34</f>
         <v>709.37599999999998</v>
       </c>
       <c r="X35" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>778.85699999999997</v>
       </c>
       <c r="Y35" s="20">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>663.75300000000004</v>
       </c>
       <c r="Z35" s="20">
-        <f t="shared" si="54"/>
-        <v>854.10612000000015</v>
+        <f t="shared" si="63"/>
+        <v>750.3</v>
+      </c>
+      <c r="AA35" s="20">
+        <f t="shared" ref="AA35:AD35" si="64">+AA33+AA34</f>
+        <v>784.9</v>
+      </c>
+      <c r="AB35" s="20">
+        <f t="shared" si="64"/>
+        <v>802.22271000000001</v>
       </c>
       <c r="AC35" s="20">
-        <f t="shared" ref="AC35" si="55">+AC33+AC34</f>
+        <f t="shared" si="64"/>
+        <v>683.66559000000007</v>
+      </c>
+      <c r="AD35" s="20">
+        <f t="shared" si="64"/>
+        <v>772.80900000000008</v>
+      </c>
+      <c r="AI35" s="20">
+        <f t="shared" ref="AI35" si="65">+AI33+AI34</f>
         <v>2095.56</v>
       </c>
-      <c r="AD35" s="20">
-        <f t="shared" ref="AD35" si="56">+AD33+AD34</f>
+      <c r="AJ35" s="20">
+        <f t="shared" ref="AJ35" si="66">+AJ33+AJ34</f>
         <v>2457.5639999999999</v>
       </c>
-      <c r="AE35" s="20">
-        <f t="shared" ref="AE35" si="57">+AE33+AE34</f>
+      <c r="AK35" s="20">
+        <f t="shared" ref="AK35" si="67">+AK33+AK34</f>
         <v>2534.6979999999999</v>
       </c>
-      <c r="AF35" s="20">
-        <f t="shared" ref="AF35" si="58">+AF33+AF34</f>
+      <c r="AL35" s="20">
+        <f t="shared" ref="AL35" si="68">+AL33+AL34</f>
         <v>2438.0429999999997</v>
       </c>
-      <c r="AG35" s="20">
-        <f t="shared" ref="AG35" si="59">+AG33+AG34</f>
+      <c r="AM35" s="20">
+        <f t="shared" ref="AM35" si="69">+AM33+AM34</f>
         <v>2660.5</v>
       </c>
-      <c r="AH35" s="20">
-        <f t="shared" ref="AH35" si="60">+AH33+AH34</f>
-        <v>3006.0921200000003</v>
-      </c>
-      <c r="AI35" s="20">
-        <f t="shared" ref="AI35" si="61">+AI33+AI34</f>
-        <v>3156.3967260000004</v>
-      </c>
-      <c r="AJ35" s="20">
-        <f t="shared" ref="AJ35" si="62">+AJ33+AJ34</f>
-        <v>3314.2165623000005</v>
-      </c>
-      <c r="AK35" s="20">
-        <f t="shared" ref="AK35" si="63">+AK33+AK34</f>
-        <v>3479.9273904150009</v>
+      <c r="AN35" s="20">
+        <f t="shared" ref="AN35" si="70">+AN33+AN34</f>
+        <v>2902.2860000000001</v>
+      </c>
+      <c r="AO35" s="20">
+        <f t="shared" ref="AO35" si="71">+AO33+AO34</f>
+        <v>3043.5973000000004</v>
+      </c>
+      <c r="AP35" s="20">
+        <f t="shared" ref="AP35" si="72">+AP33+AP34</f>
+        <v>3182.3665650000007</v>
+      </c>
+      <c r="AQ35" s="20">
+        <f t="shared" ref="AQ35:AS35" si="73">+AQ33+AQ34</f>
+        <v>3341.4848932500008</v>
+      </c>
+      <c r="AR35" s="20">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="20">
+        <f t="shared" si="73"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:265" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:273" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="20">
-        <f t="shared" ref="C36:R36" si="64">+C32-C35</f>
+        <f t="shared" ref="C36:R36" si="74">+C32-C35</f>
         <v>108.33999999999997</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>62.651000000000067</v>
       </c>
       <c r="E36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>146.32000000000011</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>149.85800000000017</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>174.09899999999993</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>76.524000000000001</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>158.60900000000004</v>
       </c>
       <c r="J36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>131.17899999999963</v>
       </c>
       <c r="K36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>200.91200000000015</v>
       </c>
       <c r="L36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>62.898000000000025</v>
       </c>
       <c r="M36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>171.21800000000007</v>
       </c>
       <c r="N36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>131.64700000000016</v>
       </c>
       <c r="O36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>178.78199999999981</v>
       </c>
       <c r="P36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>-448.24399999999991</v>
       </c>
       <c r="Q36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>92.324999999999989</v>
       </c>
       <c r="R36" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>92.018000000000029</v>
       </c>
       <c r="S36" s="20">
@@ -4829,7 +5195,7 @@
         <v>186.32299999999964</v>
       </c>
       <c r="W36" s="20">
-        <f t="shared" ref="W36" si="65">+W32-W35</f>
+        <f t="shared" ref="W36" si="75">+W32-W35</f>
         <v>234.23199999999997</v>
       </c>
       <c r="X36" s="20">
@@ -4841,47 +5207,71 @@
         <v>199.12800000000004</v>
       </c>
       <c r="Z36" s="20">
-        <f t="shared" ref="Z36" si="66">+Z32-Z35</f>
-        <v>115.75403999999946</v>
+        <f t="shared" ref="Z36:AD36" si="76">+Z32-Z35</f>
+        <v>137.03899999999965</v>
+      </c>
+      <c r="AA36" s="20">
+        <f t="shared" si="76"/>
+        <v>157.40000000000009</v>
+      </c>
+      <c r="AB36" s="20">
+        <f t="shared" si="76"/>
+        <v>93.162469999999985</v>
       </c>
       <c r="AC36" s="20">
-        <f t="shared" ref="AC36:AK36" si="67">+AC32-AC35</f>
+        <f t="shared" si="76"/>
+        <v>220.27334000000019</v>
+      </c>
+      <c r="AD36" s="20">
+        <f t="shared" si="76"/>
+        <v>157.03755999999942</v>
+      </c>
+      <c r="AI36" s="20">
+        <f t="shared" ref="AI36:AQ36" si="77">+AI32-AI35</f>
         <v>467.16899999999987</v>
       </c>
-      <c r="AD36" s="20">
-        <f t="shared" si="67"/>
+      <c r="AJ36" s="20">
+        <f t="shared" si="77"/>
         <v>540.41100000000051</v>
       </c>
-      <c r="AE36" s="20">
-        <f t="shared" si="67"/>
+      <c r="AK36" s="20">
+        <f t="shared" si="77"/>
         <v>566.67500000000064</v>
       </c>
-      <c r="AF36" s="20">
-        <f t="shared" si="67"/>
+      <c r="AL36" s="20">
+        <f t="shared" si="77"/>
         <v>-85.119000000000142</v>
       </c>
-      <c r="AG36" s="20">
-        <f t="shared" si="67"/>
+      <c r="AM36" s="20">
+        <f t="shared" si="77"/>
         <v>686.21099999999979</v>
       </c>
-      <c r="AH36" s="20">
-        <f t="shared" si="67"/>
-        <v>625.28003999999873</v>
-      </c>
-      <c r="AI36" s="20">
-        <f t="shared" si="67"/>
-        <v>630.0428654999987</v>
-      </c>
-      <c r="AJ36" s="20">
-        <f t="shared" si="67"/>
-        <v>633.45376168499888</v>
-      </c>
-      <c r="AK36" s="20">
-        <f t="shared" si="67"/>
-        <v>635.34972785384934</v>
+      <c r="AN36" s="20">
+        <f t="shared" si="77"/>
+        <v>646.56500000000051</v>
+      </c>
+      <c r="AO36" s="20">
+        <f t="shared" si="77"/>
+        <v>627.87336999999934</v>
+      </c>
+      <c r="AP36" s="20">
+        <f t="shared" si="77"/>
+        <v>644.90214999999898</v>
+      </c>
+      <c r="AQ36" s="20">
+        <f t="shared" si="77"/>
+        <v>647.70523968999896</v>
+      </c>
+      <c r="AR36" s="20">
+        <f t="shared" ref="AR36:AS36" si="78">+AR32-AR35</f>
+        <v>0</v>
+      </c>
+      <c r="AS36" s="20">
+        <f t="shared" si="78"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
@@ -4898,7 +5288,7 @@
         <v>-29.21</v>
       </c>
       <c r="F37" s="2">
-        <f>AC37-SUM(C37:E37)</f>
+        <f>AI37-SUM(C37:E37)</f>
         <v>-10.876999999999995</v>
       </c>
       <c r="G37" s="2">
@@ -4914,7 +5304,7 @@
         <v>-18.728999999999999</v>
       </c>
       <c r="J37" s="2">
-        <f>AD37-SUM(G37:I37)</f>
+        <f>AJ37-SUM(G37:I37)</f>
         <v>4.2259999999999991</v>
       </c>
       <c r="K37" s="2">
@@ -4930,7 +5320,7 @@
         <v>-19.661000000000001</v>
       </c>
       <c r="N37" s="2">
-        <f>AE37-SUM(K37:M37)</f>
+        <f>AK37-SUM(K37:M37)</f>
         <v>-13.420000000000002</v>
       </c>
       <c r="O37" s="2">
@@ -4978,112 +5368,128 @@
         <v>-12.832000000000001</v>
       </c>
       <c r="Z37" s="2">
-        <f>V37*1.05</f>
-        <v>-20.466600000000003</v>
+        <f>-9.4+12.2</f>
+        <v>2.7999999999999989</v>
+      </c>
+      <c r="AA37" s="2">
+        <f>-10.7-7.5</f>
+        <v>-18.2</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" ref="AB37:AD37" si="79">X37*1.03</f>
+        <v>1.6933199999999993</v>
       </c>
       <c r="AC37" s="2">
+        <f t="shared" si="79"/>
+        <v>-13.21696</v>
+      </c>
+      <c r="AD37" s="2">
+        <f t="shared" si="79"/>
+        <v>2.883999999999999</v>
+      </c>
+      <c r="AI37" s="2">
         <f>-68.603-22.793-26.992</f>
         <v>-118.38799999999999</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AJ37" s="2">
         <f>-55.296+14.907</f>
         <v>-40.388999999999996</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AK37" s="2">
         <f>-66.248-24.86+2.017</f>
         <v>-89.091000000000008</v>
       </c>
-      <c r="AF37" s="24">
+      <c r="AL37" s="24">
         <f>SUM(O37:R37)</f>
         <v>-104.66399999999999</v>
       </c>
-      <c r="AG37" s="2">
+      <c r="AM37" s="2">
         <f>SUM(S37:V37)</f>
         <v>-105.971</v>
       </c>
-      <c r="AH37" s="2">
+      <c r="AN37" s="2">
         <f>SUM(W37:Z37)</f>
-        <v>-20.005600000000005</v>
-      </c>
-      <c r="AI37" s="25">
-        <f>AH37*1.05</f>
-        <v>-21.005880000000005</v>
-      </c>
-      <c r="AJ37" s="2">
-        <f t="shared" ref="AJ37:AK37" si="68">AI37*1.05</f>
-        <v>-22.056174000000006</v>
-      </c>
-      <c r="AK37" s="2">
-        <f t="shared" si="68"/>
-        <v>-23.158982700000006</v>
+        <v>3.2609999999999975</v>
+      </c>
+      <c r="AO37" s="25">
+        <f>SUM(AA37:AD37)</f>
+        <v>-26.839639999999999</v>
+      </c>
+      <c r="AP37" s="2">
+        <f t="shared" ref="AP37:AQ37" si="80">AO37*1.05</f>
+        <v>-28.181622000000001</v>
+      </c>
+      <c r="AQ37" s="2">
+        <f t="shared" si="80"/>
+        <v>-29.590703100000002</v>
       </c>
     </row>
-    <row r="38" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="C38:Y38" si="69">+C36+C37</f>
+        <f t="shared" ref="C38:Y38" si="81">+C36+C37</f>
         <v>88.813999999999979</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>3.8760000000000616</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>117.1100000000001</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>138.98100000000017</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>149.02499999999992</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>75.712000000000003</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>139.88000000000005</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>135.40499999999963</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>181.72200000000015</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>26.078000000000024</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>151.55700000000007</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>118.22700000000016</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>164.8279999999998</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>-458.18499999999989</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>51.61399999999999</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>51.960000000000029</v>
       </c>
       <c r="S38" s="2">
@@ -5091,71 +5497,95 @@
         <v>154.67099999999994</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>55.699000000000041</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>203.03899999999985</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" ref="V38" si="70">+V36+V37</f>
+        <f t="shared" ref="V38" si="82">+V36+V37</f>
         <v>166.83099999999965</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" ref="W38" si="71">+W36+W37</f>
+        <f t="shared" ref="W38" si="83">+W36+W37</f>
         <v>245.88099999999997</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>77.809999999999945</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>186.29600000000005</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" ref="Z38" si="72">+Z36+Z37</f>
-        <v>95.287439999999464</v>
+        <f t="shared" ref="Z38:AD38" si="84">+Z36+Z37</f>
+        <v>139.83899999999966</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="84"/>
+        <v>139.2000000000001</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="84"/>
+        <v>94.855789999999985</v>
       </c>
       <c r="AC38" s="2">
-        <f>+AC36+AC37</f>
+        <f t="shared" si="84"/>
+        <v>207.05638000000019</v>
+      </c>
+      <c r="AD38" s="2">
+        <f t="shared" si="84"/>
+        <v>159.9215599999994</v>
+      </c>
+      <c r="AI38" s="2">
+        <f>+AI36+AI37</f>
         <v>348.78099999999989</v>
       </c>
-      <c r="AD38" s="2">
-        <f t="shared" ref="AD38:AK38" si="73">+AD36+AD37</f>
+      <c r="AJ38" s="2">
+        <f t="shared" ref="AJ38:AS38" si="85">+AJ36+AJ37</f>
         <v>500.0220000000005</v>
       </c>
-      <c r="AE38" s="2">
-        <f t="shared" si="73"/>
+      <c r="AK38" s="2">
+        <f t="shared" si="85"/>
         <v>477.58400000000063</v>
       </c>
-      <c r="AF38" s="2">
-        <f>+AF36+AF37</f>
+      <c r="AL38" s="2">
+        <f>+AL36+AL37</f>
         <v>-189.78300000000013</v>
       </c>
-      <c r="AG38" s="2">
-        <f t="shared" si="73"/>
+      <c r="AM38" s="2">
+        <f t="shared" si="85"/>
         <v>580.23999999999978</v>
       </c>
-      <c r="AH38" s="2">
-        <f t="shared" si="73"/>
-        <v>605.27443999999878</v>
-      </c>
-      <c r="AI38" s="2">
-        <f t="shared" si="73"/>
-        <v>609.03698549999865</v>
-      </c>
-      <c r="AJ38" s="2">
-        <f t="shared" si="73"/>
-        <v>611.39758768499883</v>
-      </c>
-      <c r="AK38" s="2">
-        <f t="shared" si="73"/>
-        <v>612.19074515384932</v>
+      <c r="AN38" s="2">
+        <f t="shared" si="85"/>
+        <v>649.82600000000048</v>
+      </c>
+      <c r="AO38" s="2">
+        <f t="shared" si="85"/>
+        <v>601.03372999999931</v>
+      </c>
+      <c r="AP38" s="2">
+        <f t="shared" si="85"/>
+        <v>616.72052799999904</v>
+      </c>
+      <c r="AQ38" s="2">
+        <f t="shared" si="85"/>
+        <v>618.11453658999892</v>
+      </c>
+      <c r="AR38" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="AS38" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
@@ -5169,7 +5599,7 @@
         <v>27.631</v>
       </c>
       <c r="F39" s="2">
-        <f>AC39-SUM(C39:E39)</f>
+        <f>AI39-SUM(C39:E39)</f>
         <v>21.74799999999999</v>
       </c>
       <c r="G39" s="2">
@@ -5182,7 +5612,7 @@
         <v>10.298999999999999</v>
       </c>
       <c r="J39" s="2">
-        <f>AD39-SUM(G39:I39)</f>
+        <f>AJ39-SUM(G39:I39)</f>
         <v>38.144999999999982</v>
       </c>
       <c r="K39" s="2">
@@ -5195,7 +5625,7 @@
         <v>27.34</v>
       </c>
       <c r="N39" s="2">
-        <f>AE39-SUM(K39:M39)</f>
+        <f>AK39-SUM(K39:M39)</f>
         <v>22.421999999999997</v>
       </c>
       <c r="O39" s="2">
@@ -5232,101 +5662,115 @@
         <v>13.339</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" ref="Z39" si="74">Z38*0.21</f>
-        <v>20.010362399999888</v>
+        <v>-10.8</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="AB39" s="2">
+        <f>0.21*AB38</f>
+        <v>19.919715899999996</v>
       </c>
       <c r="AC39" s="2">
+        <f t="shared" ref="AC39:AD39" si="86">0.21*AC38</f>
+        <v>43.481839800000039</v>
+      </c>
+      <c r="AD39" s="2">
+        <f t="shared" si="86"/>
+        <v>33.583527599999876</v>
+      </c>
+      <c r="AI39" s="2">
         <v>64.224999999999994</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AJ39" s="2">
         <v>214.77799999999999</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AK39" s="2">
         <v>82.603999999999999</v>
       </c>
-      <c r="AF39" s="24">
+      <c r="AL39" s="24">
         <f>SUM(O39:R39)</f>
         <v>-62.642000000000003</v>
       </c>
-      <c r="AG39" s="2">
+      <c r="AM39" s="2">
         <f>SUM(S39:V39)</f>
         <v>26.698999999999998</v>
       </c>
-      <c r="AH39" s="2">
+      <c r="AN39" s="2">
         <f>SUM(W39:Z39)</f>
-        <v>111.45536239999988</v>
-      </c>
-      <c r="AI39" s="2">
-        <f t="shared" ref="AI39:AK39" si="75">AI38*0.21</f>
-        <v>127.89776695499971</v>
-      </c>
-      <c r="AJ39" s="2">
-        <f t="shared" si="75"/>
-        <v>128.39349341384974</v>
-      </c>
-      <c r="AK39" s="2">
-        <f t="shared" si="75"/>
-        <v>128.56005648230834</v>
+        <v>80.644999999999996</v>
+      </c>
+      <c r="AO39" s="25">
+        <f>SUM(AA39:AD39)</f>
+        <v>121.48508329999993</v>
+      </c>
+      <c r="AP39" s="2">
+        <f t="shared" ref="AO39:AQ39" si="87">AP38*0.21</f>
+        <v>129.5113108799998</v>
+      </c>
+      <c r="AQ39" s="2">
+        <f t="shared" si="87"/>
+        <v>129.80405268389976</v>
       </c>
     </row>
-    <row r="40" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ref="C40" si="76">+C38-C39</f>
+        <f t="shared" ref="C40" si="88">+C38-C39</f>
         <v>60.120999999999981</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" ref="D40" si="77">+D38-D39</f>
+        <f t="shared" ref="D40" si="89">+D38-D39</f>
         <v>17.723000000000063</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ref="E40" si="78">+E38-E39</f>
+        <f t="shared" ref="E40" si="90">+E38-E39</f>
         <v>89.479000000000099</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" ref="F40:P40" si="79">+F38-F39</f>
+        <f t="shared" ref="F40:P40" si="91">+F38-F39</f>
         <v>117.23300000000017</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>-18.629000000000076</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>77.031999999999996</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>129.58100000000005</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>97.25999999999965</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>146.45100000000014</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>28.507000000000023</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>124.21700000000007</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>95.805000000000163</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>152.68899999999979</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>-363.54899999999986</v>
       </c>
       <c r="Q40" s="2">
@@ -5342,71 +5786,95 @@
         <v>142.50399999999993</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" ref="T40:Y40" si="80">+T38-T39</f>
+        <f t="shared" ref="T40:Y40" si="92">+T38-T39</f>
         <v>64.719000000000037</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>193.33299999999986</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" ref="V40" si="81">+V38-V39</f>
+        <f t="shared" ref="V40" si="93">+V38-V39</f>
         <v>152.98499999999964</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>195.84299999999996</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>49.741999999999948</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>172.95700000000005</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" ref="Z40" si="82">+Z38-Z39</f>
-        <v>75.277077599999572</v>
+        <f t="shared" ref="Z40:AD40" si="94">+Z38-Z39</f>
+        <v>150.63899999999967</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="94"/>
+        <v>114.7000000000001</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="94"/>
+        <v>74.936074099999985</v>
       </c>
       <c r="AC40" s="2">
-        <f>+AC38-AC39</f>
+        <f t="shared" si="94"/>
+        <v>163.57454020000014</v>
+      </c>
+      <c r="AD40" s="2">
+        <f t="shared" si="94"/>
+        <v>126.33803239999952</v>
+      </c>
+      <c r="AI40" s="2">
+        <f>+AI38-AI39</f>
         <v>284.55599999999993</v>
       </c>
-      <c r="AD40" s="2">
-        <f t="shared" ref="AD40:AK40" si="83">+AD38-AD39</f>
+      <c r="AJ40" s="2">
+        <f t="shared" ref="AJ40:AS40" si="95">+AJ38-AJ39</f>
         <v>285.24400000000048</v>
       </c>
-      <c r="AE40" s="2">
-        <f t="shared" si="83"/>
+      <c r="AK40" s="2">
+        <f t="shared" si="95"/>
         <v>394.98000000000064</v>
       </c>
-      <c r="AF40" s="2">
-        <f>+AF38-AF39</f>
+      <c r="AL40" s="2">
+        <f>+AL38-AL39</f>
         <v>-127.14100000000013</v>
       </c>
-      <c r="AG40" s="2">
-        <f t="shared" si="83"/>
+      <c r="AM40" s="2">
+        <f t="shared" si="95"/>
         <v>553.54099999999983</v>
       </c>
-      <c r="AH40" s="2">
-        <f t="shared" si="83"/>
-        <v>493.81907759999888</v>
-      </c>
-      <c r="AI40" s="2">
-        <f t="shared" si="83"/>
-        <v>481.13921854499893</v>
-      </c>
-      <c r="AJ40" s="2">
-        <f t="shared" si="83"/>
-        <v>483.00409427114909</v>
-      </c>
-      <c r="AK40" s="2">
-        <f t="shared" si="83"/>
-        <v>483.63068867154095</v>
+      <c r="AN40" s="2">
+        <f t="shared" si="95"/>
+        <v>569.18100000000049</v>
+      </c>
+      <c r="AO40" s="2">
+        <f t="shared" si="95"/>
+        <v>479.54864669999938</v>
+      </c>
+      <c r="AP40" s="2">
+        <f t="shared" si="95"/>
+        <v>487.20921711999927</v>
+      </c>
+      <c r="AQ40" s="2">
+        <f t="shared" si="95"/>
+        <v>488.31048390609919</v>
+      </c>
+      <c r="AR40" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AS40" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
@@ -5420,7 +5888,7 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="F41" s="2">
-        <f>AC41-SUM(C41:E41)</f>
+        <f>AI41-SUM(C41:E41)</f>
         <v>1.4809999999999999</v>
       </c>
       <c r="G41" s="2">
@@ -5433,7 +5901,7 @@
         <v>-0.54300000000000004</v>
       </c>
       <c r="J41" s="2">
-        <f>AD41-SUM(G41:I41)</f>
+        <f>AJ41-SUM(G41:I41)</f>
         <v>0.16199999999999992</v>
       </c>
       <c r="K41" s="2">
@@ -5446,7 +5914,7 @@
         <v>-0.29199999999999998</v>
       </c>
       <c r="N41" s="2">
-        <f>AE41-SUM(K41:M41)</f>
+        <f>AK41-SUM(K41:M41)</f>
         <v>0.5089999999999999</v>
       </c>
       <c r="O41" s="2">
@@ -5485,80 +5953,93 @@
       <c r="Z41" s="2">
         <v>0</v>
       </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
       <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="2">
         <v>3.153</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AJ41" s="2">
         <v>2.1019999999999999</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AK41" s="2">
         <v>0.36799999999999999</v>
       </c>
-      <c r="AF41" s="24">
+      <c r="AL41" s="24">
         <f>SUM(O41:R41)</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="2">
+      <c r="AM41" s="2">
         <f>SUM(S41:V41)</f>
         <v>0</v>
       </c>
-      <c r="AH41" s="2">
+      <c r="AN41" s="2">
         <f>SUM(W41:Z41)</f>
         <v>0</v>
       </c>
-      <c r="AI41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="2">
+      <c r="AO41" s="25">
+        <f>SUM(AA41:AD41)</f>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:265" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:273" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="20">
-        <f t="shared" ref="C42:Y42" si="84">+C38-C39-C41</f>
+        <f t="shared" ref="C42:Y42" si="96">+C38-C39-C41</f>
         <v>60.142999999999979</v>
       </c>
       <c r="D42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>17.516000000000062</v>
       </c>
       <c r="E42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>87.992000000000104</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>115.75200000000018</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>-19.012000000000075</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>74.932000000000002</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>130.12400000000005</v>
       </c>
       <c r="J42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>97.097999999999644</v>
       </c>
       <c r="K42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>146.57700000000014</v>
       </c>
       <c r="L42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>28.230000000000022</v>
       </c>
       <c r="M42" s="20">
@@ -5570,19 +6051,19 @@
         <v>95.296000000000163</v>
       </c>
       <c r="O42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>152.68899999999979</v>
       </c>
       <c r="P42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>-363.54899999999986</v>
       </c>
       <c r="Q42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>27.048999999999989</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>56.67000000000003</v>
       </c>
       <c r="S42" s="20">
@@ -5590,983 +6071,1007 @@
         <v>142.50399999999993</v>
       </c>
       <c r="T42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>64.719000000000037</v>
       </c>
       <c r="U42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>193.33299999999986</v>
       </c>
       <c r="V42" s="20">
-        <f t="shared" ref="V42" si="85">+V38-V39-V41</f>
+        <f t="shared" ref="V42" si="97">+V38-V39-V41</f>
         <v>152.98499999999964</v>
       </c>
       <c r="W42" s="20">
-        <f t="shared" ref="W42" si="86">+W38-W39-W41</f>
+        <f t="shared" ref="W42" si="98">+W38-W39-W41</f>
         <v>195.84299999999996</v>
       </c>
       <c r="X42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>49.741999999999948</v>
       </c>
       <c r="Y42" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>172.95700000000005</v>
       </c>
       <c r="Z42" s="20">
-        <f t="shared" ref="Z42" si="87">+Z38-Z39-Z41</f>
-        <v>75.277077599999572</v>
+        <f t="shared" ref="Z42:AD42" si="99">+Z38-Z39-Z41</f>
+        <v>150.63899999999967</v>
+      </c>
+      <c r="AA42" s="20">
+        <f t="shared" si="99"/>
+        <v>114.7000000000001</v>
+      </c>
+      <c r="AB42" s="20">
+        <f t="shared" si="99"/>
+        <v>74.936074099999985</v>
       </c>
       <c r="AC42" s="20">
-        <f>+AC38-AC39-AC41</f>
+        <f t="shared" si="99"/>
+        <v>163.57454020000014</v>
+      </c>
+      <c r="AD42" s="20">
+        <f t="shared" si="99"/>
+        <v>126.33803239999952</v>
+      </c>
+      <c r="AI42" s="20">
+        <f>+AI38-AI39-AI41</f>
         <v>281.40299999999991</v>
       </c>
-      <c r="AD42" s="20">
-        <f t="shared" ref="AD42:AK42" si="88">+AD38-AD39-AD41</f>
+      <c r="AJ42" s="20">
+        <f t="shared" ref="AJ42:AS42" si="100">+AJ38-AJ39-AJ41</f>
         <v>283.14200000000051</v>
       </c>
-      <c r="AE42" s="20">
-        <f t="shared" si="88"/>
+      <c r="AK42" s="20">
+        <f t="shared" si="100"/>
         <v>394.61200000000065</v>
       </c>
-      <c r="AF42" s="20">
-        <f>+AF38-AF39-AF41</f>
+      <c r="AL42" s="20">
+        <f>+AL38-AL39-AL41</f>
         <v>-127.14100000000013</v>
       </c>
-      <c r="AG42" s="20">
-        <f t="shared" si="88"/>
+      <c r="AM42" s="20">
+        <f t="shared" si="100"/>
         <v>553.54099999999983</v>
       </c>
-      <c r="AH42" s="20">
-        <f t="shared" si="88"/>
-        <v>493.81907759999888</v>
-      </c>
-      <c r="AI42" s="20">
-        <f t="shared" si="88"/>
-        <v>481.13921854499893</v>
-      </c>
-      <c r="AJ42" s="20">
-        <f t="shared" si="88"/>
-        <v>483.00409427114909</v>
-      </c>
-      <c r="AK42" s="20">
-        <f t="shared" si="88"/>
-        <v>483.63068867154095</v>
-      </c>
-      <c r="AL42" s="20">
-        <f>AK42*(1+$AO$47)</f>
-        <v>478.79438178482553</v>
-      </c>
-      <c r="AM42" s="20">
-        <f t="shared" ref="AM42:CX42" si="89">AL42*(1+$AO$47)</f>
-        <v>474.00643796697727</v>
-      </c>
       <c r="AN42" s="20">
-        <f t="shared" si="89"/>
-        <v>469.2663735873075</v>
+        <f t="shared" si="100"/>
+        <v>569.18100000000049</v>
       </c>
       <c r="AO42" s="20">
-        <f t="shared" si="89"/>
-        <v>464.57370985143444</v>
+        <f t="shared" si="100"/>
+        <v>479.54864669999938</v>
       </c>
       <c r="AP42" s="20">
-        <f t="shared" si="89"/>
-        <v>459.92797275292008</v>
+        <f t="shared" si="100"/>
+        <v>487.20921711999927</v>
       </c>
       <c r="AQ42" s="20">
-        <f t="shared" si="89"/>
-        <v>455.32869302539086</v>
+        <f t="shared" si="100"/>
+        <v>488.31048390609919</v>
       </c>
       <c r="AR42" s="20">
-        <f t="shared" si="89"/>
-        <v>450.77540609513693</v>
+        <f t="shared" si="100"/>
+        <v>0</v>
       </c>
       <c r="AS42" s="20">
-        <f t="shared" si="89"/>
-        <v>446.26765203418557</v>
+        <f t="shared" si="100"/>
+        <v>0</v>
       </c>
       <c r="AT42" s="20">
-        <f t="shared" si="89"/>
-        <v>441.80497551384371</v>
+        <f>AQ42*(1+$AU$47)</f>
+        <v>483.4273790670382</v>
       </c>
       <c r="AU42" s="20">
-        <f t="shared" si="89"/>
-        <v>437.38692575870527</v>
+        <f t="shared" ref="AU42:DF42" si="101">AT42*(1+$AU$47)</f>
+        <v>478.59310527636779</v>
       </c>
       <c r="AV42" s="20">
-        <f t="shared" si="89"/>
-        <v>433.01305650111823</v>
+        <f t="shared" si="101"/>
+        <v>473.80717422360414</v>
       </c>
       <c r="AW42" s="20">
-        <f t="shared" si="89"/>
-        <v>428.68292593610704</v>
+        <f t="shared" si="101"/>
+        <v>469.06910248136808</v>
       </c>
       <c r="AX42" s="20">
-        <f t="shared" si="89"/>
-        <v>424.39609667674597</v>
+        <f t="shared" si="101"/>
+        <v>464.37841145655437</v>
       </c>
       <c r="AY42" s="20">
-        <f t="shared" si="89"/>
-        <v>420.1521357099785</v>
+        <f t="shared" si="101"/>
+        <v>459.73462734198881</v>
       </c>
       <c r="AZ42" s="20">
-        <f t="shared" si="89"/>
-        <v>415.95061435287869</v>
+        <f t="shared" si="101"/>
+        <v>455.13728106856894</v>
       </c>
       <c r="BA42" s="20">
-        <f t="shared" si="89"/>
-        <v>411.79110820934989</v>
+        <f t="shared" si="101"/>
+        <v>450.58590825788326</v>
       </c>
       <c r="BB42" s="20">
-        <f t="shared" si="89"/>
-        <v>407.6731971272564</v>
+        <f t="shared" si="101"/>
+        <v>446.08004917530445</v>
       </c>
       <c r="BC42" s="20">
-        <f t="shared" si="89"/>
-        <v>403.59646515598382</v>
+        <f t="shared" si="101"/>
+        <v>441.6192486835514</v>
       </c>
       <c r="BD42" s="20">
-        <f t="shared" si="89"/>
-        <v>399.560500504424</v>
+        <f t="shared" si="101"/>
+        <v>437.20305619671586</v>
       </c>
       <c r="BE42" s="20">
-        <f t="shared" si="89"/>
-        <v>395.56489549937976</v>
+        <f t="shared" si="101"/>
+        <v>432.8310256347487</v>
       </c>
       <c r="BF42" s="20">
-        <f t="shared" si="89"/>
-        <v>391.60924654438594</v>
+        <f t="shared" si="101"/>
+        <v>428.50271537840121</v>
       </c>
       <c r="BG42" s="20">
-        <f t="shared" si="89"/>
-        <v>387.69315407894209</v>
+        <f t="shared" si="101"/>
+        <v>424.21768822461718</v>
       </c>
       <c r="BH42" s="20">
-        <f t="shared" si="89"/>
-        <v>383.81622253815266</v>
+        <f t="shared" si="101"/>
+        <v>419.97551134237102</v>
       </c>
       <c r="BI42" s="20">
-        <f t="shared" si="89"/>
-        <v>379.97806031277111</v>
+        <f t="shared" si="101"/>
+        <v>415.77575622894733</v>
       </c>
       <c r="BJ42" s="20">
-        <f t="shared" si="89"/>
-        <v>376.17827970964339</v>
+        <f t="shared" si="101"/>
+        <v>411.61799866665785</v>
       </c>
       <c r="BK42" s="20">
-        <f t="shared" si="89"/>
-        <v>372.41649691254696</v>
+        <f t="shared" si="101"/>
+        <v>407.50181867999129</v>
       </c>
       <c r="BL42" s="20">
-        <f t="shared" si="89"/>
-        <v>368.69233194342149</v>
+        <f t="shared" si="101"/>
+        <v>403.42680049319137</v>
       </c>
       <c r="BM42" s="20">
-        <f t="shared" si="89"/>
-        <v>365.00540862398725</v>
+        <f t="shared" si="101"/>
+        <v>399.39253248825946</v>
       </c>
       <c r="BN42" s="20">
-        <f t="shared" si="89"/>
-        <v>361.35535453774736</v>
+        <f t="shared" si="101"/>
+        <v>395.39860716337688</v>
       </c>
       <c r="BO42" s="20">
-        <f t="shared" si="89"/>
-        <v>357.74180099236986</v>
+        <f t="shared" si="101"/>
+        <v>391.4446210917431</v>
       </c>
       <c r="BP42" s="20">
-        <f t="shared" si="89"/>
-        <v>354.16438298244617</v>
+        <f t="shared" si="101"/>
+        <v>387.53017488082565</v>
       </c>
       <c r="BQ42" s="20">
-        <f t="shared" si="89"/>
-        <v>350.6227391526217</v>
+        <f t="shared" si="101"/>
+        <v>383.65487313201737</v>
       </c>
       <c r="BR42" s="20">
-        <f t="shared" si="89"/>
-        <v>347.11651176109547</v>
+        <f t="shared" si="101"/>
+        <v>379.81832440069718</v>
       </c>
       <c r="BS42" s="20">
-        <f t="shared" si="89"/>
-        <v>343.64534664348452</v>
+        <f t="shared" si="101"/>
+        <v>376.02014115669022</v>
       </c>
       <c r="BT42" s="20">
-        <f t="shared" si="89"/>
-        <v>340.20889317704967</v>
+        <f t="shared" si="101"/>
+        <v>372.25993974512329</v>
       </c>
       <c r="BU42" s="20">
-        <f t="shared" si="89"/>
-        <v>336.80680424527918</v>
+        <f t="shared" si="101"/>
+        <v>368.53734034767206</v>
       </c>
       <c r="BV42" s="20">
-        <f t="shared" si="89"/>
-        <v>333.43873620282636</v>
+        <f t="shared" si="101"/>
+        <v>364.85196694419534</v>
       </c>
       <c r="BW42" s="20">
-        <f t="shared" si="89"/>
-        <v>330.10434884079808</v>
+        <f t="shared" si="101"/>
+        <v>361.20344727475339</v>
       </c>
       <c r="BX42" s="20">
-        <f t="shared" si="89"/>
-        <v>326.80330535239011</v>
+        <f t="shared" si="101"/>
+        <v>357.59141280200583</v>
       </c>
       <c r="BY42" s="20">
-        <f t="shared" si="89"/>
-        <v>323.53527229886623</v>
+        <f t="shared" si="101"/>
+        <v>354.01549867398575</v>
       </c>
       <c r="BZ42" s="20">
-        <f t="shared" si="89"/>
-        <v>320.29991957587754</v>
+        <f t="shared" si="101"/>
+        <v>350.47534368724587</v>
       </c>
       <c r="CA42" s="20">
-        <f t="shared" si="89"/>
-        <v>317.09692038011877</v>
+        <f t="shared" si="101"/>
+        <v>346.97059025037339</v>
       </c>
       <c r="CB42" s="20">
-        <f t="shared" si="89"/>
-        <v>313.9259511763176</v>
+        <f t="shared" si="101"/>
+        <v>343.50088434786966</v>
       </c>
       <c r="CC42" s="20">
-        <f t="shared" si="89"/>
-        <v>310.78669166455444</v>
+        <f t="shared" si="101"/>
+        <v>340.06587550439093</v>
       </c>
       <c r="CD42" s="20">
-        <f t="shared" si="89"/>
-        <v>307.67882474790889</v>
+        <f t="shared" si="101"/>
+        <v>336.665216749347</v>
       </c>
       <c r="CE42" s="20">
-        <f t="shared" si="89"/>
-        <v>304.60203650042979</v>
+        <f t="shared" si="101"/>
+        <v>333.2985645818535</v>
       </c>
       <c r="CF42" s="20">
-        <f t="shared" si="89"/>
-        <v>301.55601613542547</v>
+        <f t="shared" si="101"/>
+        <v>329.96557893603494</v>
       </c>
       <c r="CG42" s="20">
-        <f t="shared" si="89"/>
-        <v>298.54045597407122</v>
+        <f t="shared" si="101"/>
+        <v>326.66592314667457</v>
       </c>
       <c r="CH42" s="20">
-        <f t="shared" si="89"/>
-        <v>295.55505141433053</v>
+        <f t="shared" si="101"/>
+        <v>323.39926391520783</v>
       </c>
       <c r="CI42" s="20">
-        <f t="shared" si="89"/>
-        <v>292.59950090018725</v>
+        <f t="shared" si="101"/>
+        <v>320.16527127605576</v>
       </c>
       <c r="CJ42" s="20">
-        <f t="shared" si="89"/>
-        <v>289.67350589118536</v>
+        <f t="shared" si="101"/>
+        <v>316.9636185632952</v>
       </c>
       <c r="CK42" s="20">
-        <f t="shared" si="89"/>
-        <v>286.77677083227348</v>
+        <f t="shared" si="101"/>
+        <v>313.79398237766225</v>
       </c>
       <c r="CL42" s="20">
-        <f t="shared" si="89"/>
-        <v>283.90900312395075</v>
+        <f t="shared" si="101"/>
+        <v>310.65604255388564</v>
       </c>
       <c r="CM42" s="20">
-        <f t="shared" si="89"/>
-        <v>281.06991309271126</v>
+        <f t="shared" si="101"/>
+        <v>307.54948212834677</v>
       </c>
       <c r="CN42" s="20">
-        <f t="shared" si="89"/>
-        <v>278.25921396178416</v>
+        <f t="shared" si="101"/>
+        <v>304.47398730706328</v>
       </c>
       <c r="CO42" s="20">
-        <f t="shared" si="89"/>
-        <v>275.47662182216629</v>
+        <f t="shared" si="101"/>
+        <v>301.42924743399266</v>
       </c>
       <c r="CP42" s="20">
-        <f t="shared" si="89"/>
-        <v>272.72185560394462</v>
+        <f t="shared" si="101"/>
+        <v>298.41495495965273</v>
       </c>
       <c r="CQ42" s="20">
-        <f t="shared" si="89"/>
-        <v>269.99463704790514</v>
+        <f t="shared" si="101"/>
+        <v>295.43080541005622</v>
       </c>
       <c r="CR42" s="20">
-        <f t="shared" si="89"/>
-        <v>267.2946906774261</v>
+        <f t="shared" si="101"/>
+        <v>292.47649735595564</v>
       </c>
       <c r="CS42" s="20">
-        <f t="shared" si="89"/>
-        <v>264.62174377065185</v>
+        <f t="shared" si="101"/>
+        <v>289.5517323823961</v>
       </c>
       <c r="CT42" s="20">
-        <f t="shared" si="89"/>
-        <v>261.97552633294532</v>
+        <f t="shared" si="101"/>
+        <v>286.65621505857212</v>
       </c>
       <c r="CU42" s="20">
-        <f t="shared" si="89"/>
-        <v>259.35577106961586</v>
+        <f t="shared" si="101"/>
+        <v>283.78965290798641</v>
       </c>
       <c r="CV42" s="20">
-        <f t="shared" si="89"/>
-        <v>256.76221335891967</v>
+        <f t="shared" si="101"/>
+        <v>280.95175637890657</v>
       </c>
       <c r="CW42" s="20">
-        <f t="shared" si="89"/>
-        <v>254.19459122533047</v>
+        <f t="shared" si="101"/>
+        <v>278.14223881511748</v>
       </c>
       <c r="CX42" s="20">
-        <f t="shared" si="89"/>
-        <v>251.65264531307716</v>
+        <f t="shared" si="101"/>
+        <v>275.36081642696632</v>
       </c>
       <c r="CY42" s="20">
-        <f t="shared" ref="CY42:ES42" si="90">CX42*(1+$AO$47)</f>
-        <v>249.13611885994638</v>
+        <f t="shared" si="101"/>
+        <v>272.60720826269664</v>
       </c>
       <c r="CZ42" s="20">
-        <f t="shared" si="90"/>
-        <v>246.64475767134692</v>
+        <f t="shared" si="101"/>
+        <v>269.88113618006969</v>
       </c>
       <c r="DA42" s="20">
-        <f t="shared" si="90"/>
-        <v>244.17831009463345</v>
+        <f t="shared" si="101"/>
+        <v>267.18232481826897</v>
       </c>
       <c r="DB42" s="20">
-        <f t="shared" si="90"/>
-        <v>241.73652699368711</v>
+        <f t="shared" si="101"/>
+        <v>264.51050157008626</v>
       </c>
       <c r="DC42" s="20">
-        <f t="shared" si="90"/>
-        <v>239.31916172375023</v>
+        <f t="shared" si="101"/>
+        <v>261.86539655438537</v>
       </c>
       <c r="DD42" s="20">
-        <f t="shared" si="90"/>
-        <v>236.92597010651272</v>
+        <f t="shared" si="101"/>
+        <v>259.24674258884153</v>
       </c>
       <c r="DE42" s="20">
-        <f t="shared" si="90"/>
-        <v>234.5567104054476</v>
+        <f t="shared" si="101"/>
+        <v>256.65427516295313</v>
       </c>
       <c r="DF42" s="20">
-        <f t="shared" si="90"/>
-        <v>232.21114330139312</v>
+        <f t="shared" si="101"/>
+        <v>254.0877324113236</v>
       </c>
       <c r="DG42" s="20">
-        <f t="shared" si="90"/>
-        <v>229.88903186837919</v>
+        <f t="shared" ref="DG42:FA42" si="102">DF42*(1+$AU$47)</f>
+        <v>251.54685508721036</v>
       </c>
       <c r="DH42" s="20">
-        <f t="shared" si="90"/>
-        <v>227.5901415496954</v>
+        <f t="shared" si="102"/>
+        <v>249.03138653633826</v>
       </c>
       <c r="DI42" s="20">
-        <f t="shared" si="90"/>
-        <v>225.31424013419846</v>
+        <f t="shared" si="102"/>
+        <v>246.54107267097487</v>
       </c>
       <c r="DJ42" s="20">
-        <f t="shared" si="90"/>
-        <v>223.06109773285647</v>
+        <f t="shared" si="102"/>
+        <v>244.07566194426511</v>
       </c>
       <c r="DK42" s="20">
-        <f t="shared" si="90"/>
-        <v>220.83048675552791</v>
+        <f t="shared" si="102"/>
+        <v>241.63490532482245</v>
       </c>
       <c r="DL42" s="20">
-        <f t="shared" si="90"/>
-        <v>218.62218188797263</v>
+        <f t="shared" si="102"/>
+        <v>239.21855627157422</v>
       </c>
       <c r="DM42" s="20">
-        <f t="shared" si="90"/>
-        <v>216.43596006909291</v>
+        <f t="shared" si="102"/>
+        <v>236.82637070885846</v>
       </c>
       <c r="DN42" s="20">
-        <f t="shared" si="90"/>
-        <v>214.27160046840197</v>
+        <f t="shared" si="102"/>
+        <v>234.45810700176989</v>
       </c>
       <c r="DO42" s="20">
-        <f t="shared" si="90"/>
-        <v>212.12888446371795</v>
+        <f t="shared" si="102"/>
+        <v>232.11352593175218</v>
       </c>
       <c r="DP42" s="20">
-        <f t="shared" si="90"/>
-        <v>210.00759561908077</v>
+        <f t="shared" si="102"/>
+        <v>229.79239067243466</v>
       </c>
       <c r="DQ42" s="20">
-        <f t="shared" si="90"/>
-        <v>207.90751966288997</v>
+        <f t="shared" si="102"/>
+        <v>227.49446676571031</v>
       </c>
       <c r="DR42" s="20">
-        <f t="shared" si="90"/>
-        <v>205.82844446626106</v>
+        <f t="shared" si="102"/>
+        <v>225.2195220980532</v>
       </c>
       <c r="DS42" s="20">
-        <f t="shared" si="90"/>
-        <v>203.77016002159846</v>
+        <f t="shared" si="102"/>
+        <v>222.96732687707268</v>
       </c>
       <c r="DT42" s="20">
-        <f t="shared" si="90"/>
-        <v>201.73245842138246</v>
+        <f t="shared" si="102"/>
+        <v>220.73765360830194</v>
       </c>
       <c r="DU42" s="20">
-        <f t="shared" si="90"/>
-        <v>199.71513383716862</v>
+        <f t="shared" si="102"/>
+        <v>218.53027707221892</v>
       </c>
       <c r="DV42" s="20">
-        <f t="shared" si="90"/>
-        <v>197.71798249879694</v>
+        <f t="shared" si="102"/>
+        <v>216.34497430149673</v>
       </c>
       <c r="DW42" s="20">
-        <f t="shared" si="90"/>
-        <v>195.74080267380896</v>
+        <f t="shared" si="102"/>
+        <v>214.18152455848175</v>
       </c>
       <c r="DX42" s="20">
-        <f t="shared" si="90"/>
-        <v>193.78339464707088</v>
+        <f t="shared" si="102"/>
+        <v>212.03970931289695</v>
       </c>
       <c r="DY42" s="20">
-        <f t="shared" si="90"/>
-        <v>191.84556070060017</v>
+        <f t="shared" si="102"/>
+        <v>209.91931221976799</v>
       </c>
       <c r="DZ42" s="20">
-        <f t="shared" si="90"/>
-        <v>189.92710509359418</v>
+        <f t="shared" si="102"/>
+        <v>207.82011909757031</v>
       </c>
       <c r="EA42" s="20">
-        <f t="shared" si="90"/>
-        <v>188.02783404265824</v>
+        <f t="shared" si="102"/>
+        <v>205.74191790659461</v>
       </c>
       <c r="EB42" s="20">
-        <f t="shared" si="90"/>
-        <v>186.14755570223167</v>
+        <f t="shared" si="102"/>
+        <v>203.68449872752865</v>
       </c>
       <c r="EC42" s="20">
-        <f t="shared" si="90"/>
-        <v>184.28608014520935</v>
+        <f t="shared" si="102"/>
+        <v>201.64765374025336</v>
       </c>
       <c r="ED42" s="20">
-        <f t="shared" si="90"/>
-        <v>182.44321934375725</v>
+        <f t="shared" si="102"/>
+        <v>199.63117720285084</v>
       </c>
       <c r="EE42" s="20">
-        <f t="shared" si="90"/>
-        <v>180.61878715031966</v>
+        <f t="shared" si="102"/>
+        <v>197.63486543082232</v>
       </c>
       <c r="EF42" s="20">
-        <f t="shared" si="90"/>
-        <v>178.81259927881646</v>
+        <f t="shared" si="102"/>
+        <v>195.65851677651409</v>
       </c>
       <c r="EG42" s="20">
-        <f t="shared" si="90"/>
-        <v>177.0244732860283</v>
+        <f t="shared" si="102"/>
+        <v>193.70193160874894</v>
       </c>
       <c r="EH42" s="20">
-        <f t="shared" si="90"/>
-        <v>175.25422855316802</v>
+        <f t="shared" si="102"/>
+        <v>191.76491229266145</v>
       </c>
       <c r="EI42" s="20">
-        <f t="shared" si="90"/>
-        <v>173.50168626763633</v>
+        <f t="shared" si="102"/>
+        <v>189.84726316973484</v>
       </c>
       <c r="EJ42" s="20">
-        <f t="shared" si="90"/>
-        <v>171.76666940495997</v>
+        <f t="shared" si="102"/>
+        <v>187.94879053803749</v>
       </c>
       <c r="EK42" s="20">
-        <f t="shared" si="90"/>
-        <v>170.04900271091037</v>
+        <f t="shared" si="102"/>
+        <v>186.0693026326571</v>
       </c>
       <c r="EL42" s="20">
-        <f t="shared" si="90"/>
-        <v>168.34851268380126</v>
+        <f t="shared" si="102"/>
+        <v>184.20860960633053</v>
       </c>
       <c r="EM42" s="20">
-        <f t="shared" si="90"/>
-        <v>166.66502755696325</v>
+        <f t="shared" si="102"/>
+        <v>182.36652351026723</v>
       </c>
       <c r="EN42" s="20">
-        <f t="shared" si="90"/>
-        <v>164.99837728139363</v>
+        <f t="shared" si="102"/>
+        <v>180.54285827516455</v>
       </c>
       <c r="EO42" s="20">
-        <f t="shared" si="90"/>
-        <v>163.3483935085797</v>
+        <f t="shared" si="102"/>
+        <v>178.73742969241289</v>
       </c>
       <c r="EP42" s="20">
-        <f t="shared" si="90"/>
-        <v>161.71490957349391</v>
+        <f t="shared" si="102"/>
+        <v>176.95005539548876</v>
       </c>
       <c r="EQ42" s="20">
-        <f t="shared" si="90"/>
-        <v>160.09776047775898</v>
+        <f t="shared" si="102"/>
+        <v>175.18055484153388</v>
       </c>
       <c r="ER42" s="20">
-        <f t="shared" si="90"/>
-        <v>158.49678287298138</v>
+        <f t="shared" si="102"/>
+        <v>173.42874929311853</v>
       </c>
       <c r="ES42" s="20">
-        <f t="shared" si="90"/>
-        <v>156.91181504425157</v>
+        <f t="shared" si="102"/>
+        <v>171.69446180018736</v>
       </c>
       <c r="ET42" s="20">
-        <f>ES42*(1+$AO$47)</f>
-        <v>155.34269689380906</v>
+        <f t="shared" si="102"/>
+        <v>169.97751718218549</v>
       </c>
       <c r="EU42" s="20">
-        <f t="shared" ref="EU42:HA42" si="91">ET42*(1+$AO$47)</f>
-        <v>153.78926992487098</v>
+        <f t="shared" si="102"/>
+        <v>168.27774201036362</v>
       </c>
       <c r="EV42" s="20">
-        <f t="shared" si="91"/>
-        <v>152.25137722562226</v>
+        <f t="shared" si="102"/>
+        <v>166.59496459025999</v>
       </c>
       <c r="EW42" s="20">
-        <f t="shared" si="91"/>
-        <v>150.72886345336605</v>
+        <f t="shared" si="102"/>
+        <v>164.92901494435739</v>
       </c>
       <c r="EX42" s="20">
-        <f t="shared" si="91"/>
-        <v>149.22157481883238</v>
+        <f t="shared" si="102"/>
+        <v>163.27972479491382</v>
       </c>
       <c r="EY42" s="20">
-        <f t="shared" si="91"/>
-        <v>147.72935907064405</v>
+        <f t="shared" si="102"/>
+        <v>161.64692754696469</v>
       </c>
       <c r="EZ42" s="20">
-        <f t="shared" si="91"/>
-        <v>146.25206547993761</v>
+        <f t="shared" si="102"/>
+        <v>160.03045827149504</v>
       </c>
       <c r="FA42" s="20">
-        <f t="shared" si="91"/>
-        <v>144.78954482513822</v>
+        <f t="shared" si="102"/>
+        <v>158.43015368878008</v>
       </c>
       <c r="FB42" s="20">
-        <f t="shared" si="91"/>
-        <v>143.34164937688683</v>
+        <f>FA42*(1+$AU$47)</f>
+        <v>156.84585215189227</v>
       </c>
       <c r="FC42" s="20">
-        <f t="shared" si="91"/>
-        <v>141.90823288311796</v>
+        <f t="shared" ref="FC42:HI42" si="103">FB42*(1+$AU$47)</f>
+        <v>155.27739363037335</v>
       </c>
       <c r="FD42" s="20">
-        <f t="shared" si="91"/>
-        <v>140.48915055428677</v>
+        <f t="shared" si="103"/>
+        <v>153.72461969406962</v>
       </c>
       <c r="FE42" s="20">
-        <f t="shared" si="91"/>
-        <v>139.08425904874389</v>
+        <f t="shared" si="103"/>
+        <v>152.18737349712893</v>
       </c>
       <c r="FF42" s="20">
-        <f t="shared" si="91"/>
-        <v>137.69341645825645</v>
+        <f t="shared" si="103"/>
+        <v>150.66549976215765</v>
       </c>
       <c r="FG42" s="20">
-        <f t="shared" si="91"/>
-        <v>136.31648229367389</v>
+        <f t="shared" si="103"/>
+        <v>149.15884476453607</v>
       </c>
       <c r="FH42" s="20">
-        <f t="shared" si="91"/>
-        <v>134.95331747073715</v>
+        <f t="shared" si="103"/>
+        <v>147.6672563168907</v>
       </c>
       <c r="FI42" s="20">
-        <f t="shared" si="91"/>
-        <v>133.60378429602977</v>
+        <f t="shared" si="103"/>
+        <v>146.1905837537218</v>
       </c>
       <c r="FJ42" s="20">
-        <f t="shared" si="91"/>
-        <v>132.26774645306946</v>
+        <f t="shared" si="103"/>
+        <v>144.72867791618458</v>
       </c>
       <c r="FK42" s="20">
-        <f t="shared" si="91"/>
-        <v>130.94506898853876</v>
+        <f t="shared" si="103"/>
+        <v>143.28139113702272</v>
       </c>
       <c r="FL42" s="20">
-        <f t="shared" si="91"/>
-        <v>129.63561829865338</v>
+        <f t="shared" si="103"/>
+        <v>141.84857722565249</v>
       </c>
       <c r="FM42" s="20">
-        <f t="shared" si="91"/>
-        <v>128.33926211566686</v>
+        <f t="shared" si="103"/>
+        <v>140.43009145339596</v>
       </c>
       <c r="FN42" s="20">
-        <f t="shared" si="91"/>
-        <v>127.05586949451019</v>
+        <f t="shared" si="103"/>
+        <v>139.025790538862</v>
       </c>
       <c r="FO42" s="20">
-        <f t="shared" si="91"/>
-        <v>125.78531079956508</v>
+        <f t="shared" si="103"/>
+        <v>137.63553263347339</v>
       </c>
       <c r="FP42" s="20">
-        <f t="shared" si="91"/>
-        <v>124.52745769156942</v>
+        <f t="shared" si="103"/>
+        <v>136.25917730713866</v>
       </c>
       <c r="FQ42" s="20">
-        <f t="shared" si="91"/>
-        <v>123.28218311465373</v>
+        <f t="shared" si="103"/>
+        <v>134.89658553406727</v>
       </c>
       <c r="FR42" s="20">
-        <f t="shared" si="91"/>
-        <v>122.0493612835072</v>
+        <f t="shared" si="103"/>
+        <v>133.54761967872659</v>
       </c>
       <c r="FS42" s="20">
-        <f t="shared" si="91"/>
-        <v>120.82886767067212</v>
+        <f t="shared" si="103"/>
+        <v>132.21214348193934</v>
       </c>
       <c r="FT42" s="20">
-        <f t="shared" si="91"/>
-        <v>119.6205789939654</v>
+        <f t="shared" si="103"/>
+        <v>130.89002204711994</v>
       </c>
       <c r="FU42" s="20">
-        <f t="shared" si="91"/>
-        <v>118.42437320402574</v>
+        <f t="shared" si="103"/>
+        <v>129.58112182664874</v>
       </c>
       <c r="FV42" s="20">
-        <f t="shared" si="91"/>
-        <v>117.24012947198548</v>
+        <f t="shared" si="103"/>
+        <v>128.28531060838225</v>
       </c>
       <c r="FW42" s="20">
-        <f t="shared" si="91"/>
-        <v>116.06772817726562</v>
+        <f t="shared" si="103"/>
+        <v>127.00245750229843</v>
       </c>
       <c r="FX42" s="20">
-        <f t="shared" si="91"/>
-        <v>114.90705089549296</v>
+        <f t="shared" si="103"/>
+        <v>125.73243292727544</v>
       </c>
       <c r="FY42" s="20">
-        <f t="shared" si="91"/>
-        <v>113.75798038653802</v>
+        <f t="shared" si="103"/>
+        <v>124.47510859800268</v>
       </c>
       <c r="FZ42" s="20">
-        <f t="shared" si="91"/>
-        <v>112.62040058267264</v>
+        <f t="shared" si="103"/>
+        <v>123.23035751202265</v>
       </c>
       <c r="GA42" s="20">
-        <f t="shared" si="91"/>
-        <v>111.49419657684592</v>
+        <f t="shared" si="103"/>
+        <v>121.99805393690242</v>
       </c>
       <c r="GB42" s="20">
-        <f t="shared" si="91"/>
-        <v>110.37925461107746</v>
+        <f t="shared" si="103"/>
+        <v>120.7780733975334</v>
       </c>
       <c r="GC42" s="20">
-        <f t="shared" si="91"/>
-        <v>109.27546206496667</v>
+        <f t="shared" si="103"/>
+        <v>119.57029266355806</v>
       </c>
       <c r="GD42" s="20">
-        <f t="shared" si="91"/>
-        <v>108.182707444317</v>
+        <f t="shared" si="103"/>
+        <v>118.37458973692249</v>
       </c>
       <c r="GE42" s="20">
-        <f t="shared" si="91"/>
-        <v>107.10088036987383</v>
+        <f t="shared" si="103"/>
+        <v>117.19084383955327</v>
       </c>
       <c r="GF42" s="20">
-        <f t="shared" si="91"/>
-        <v>106.02987156617509</v>
+        <f t="shared" si="103"/>
+        <v>116.01893540115773</v>
       </c>
       <c r="GG42" s="20">
-        <f t="shared" si="91"/>
-        <v>104.96957285051333</v>
+        <f t="shared" si="103"/>
+        <v>114.85874604714616</v>
       </c>
       <c r="GH42" s="20">
-        <f t="shared" si="91"/>
-        <v>103.9198771220082</v>
+        <f t="shared" si="103"/>
+        <v>113.71015858667469</v>
       </c>
       <c r="GI42" s="20">
-        <f t="shared" si="91"/>
-        <v>102.88067835078812</v>
+        <f t="shared" si="103"/>
+        <v>112.57305700080795</v>
       </c>
       <c r="GJ42" s="20">
-        <f t="shared" si="91"/>
-        <v>101.85187156728023</v>
+        <f t="shared" si="103"/>
+        <v>111.44732643079988</v>
       </c>
       <c r="GK42" s="20">
-        <f t="shared" si="91"/>
-        <v>100.83335285160743</v>
+        <f t="shared" si="103"/>
+        <v>110.33285316649187</v>
       </c>
       <c r="GL42" s="20">
-        <f t="shared" si="91"/>
-        <v>99.825019323091354</v>
+        <f t="shared" si="103"/>
+        <v>109.22952463482696</v>
       </c>
       <c r="GM42" s="20">
-        <f t="shared" si="91"/>
-        <v>98.826769129860438</v>
+        <f t="shared" si="103"/>
+        <v>108.13722938847869</v>
       </c>
       <c r="GN42" s="20">
-        <f t="shared" si="91"/>
-        <v>97.838501438561835</v>
+        <f t="shared" si="103"/>
+        <v>107.0558570945939</v>
       </c>
       <c r="GO42" s="20">
-        <f t="shared" si="91"/>
-        <v>96.860116424176212</v>
+        <f t="shared" si="103"/>
+        <v>105.98529852364797</v>
       </c>
       <c r="GP42" s="20">
-        <f t="shared" si="91"/>
-        <v>95.891515259934451</v>
+        <f t="shared" si="103"/>
+        <v>104.92544553841149</v>
       </c>
       <c r="GQ42" s="20">
-        <f t="shared" si="91"/>
-        <v>94.932600107335105</v>
+        <f t="shared" si="103"/>
+        <v>103.87619108302738</v>
       </c>
       <c r="GR42" s="20">
-        <f t="shared" si="91"/>
-        <v>93.98327410626176</v>
+        <f t="shared" si="103"/>
+        <v>102.8374291721971</v>
       </c>
       <c r="GS42" s="20">
-        <f t="shared" si="91"/>
-        <v>93.043441365199143</v>
+        <f t="shared" si="103"/>
+        <v>101.80905488047513</v>
       </c>
       <c r="GT42" s="20">
-        <f t="shared" si="91"/>
-        <v>92.113006951547149</v>
+        <f t="shared" si="103"/>
+        <v>100.79096433167038</v>
       </c>
       <c r="GU42" s="20">
-        <f t="shared" si="91"/>
-        <v>91.191876882031679</v>
+        <f t="shared" si="103"/>
+        <v>99.783054688353673</v>
       </c>
       <c r="GV42" s="20">
-        <f t="shared" si="91"/>
-        <v>90.279958113211364</v>
+        <f t="shared" si="103"/>
+        <v>98.785224141470138</v>
       </c>
       <c r="GW42" s="20">
-        <f t="shared" si="91"/>
-        <v>89.37715853207925</v>
+        <f t="shared" si="103"/>
+        <v>97.797371900055438</v>
       </c>
       <c r="GX42" s="20">
-        <f t="shared" si="91"/>
-        <v>88.483386946758458</v>
+        <f t="shared" si="103"/>
+        <v>96.819398181054879</v>
       </c>
       <c r="GY42" s="20">
-        <f t="shared" si="91"/>
-        <v>87.598553077290873</v>
+        <f t="shared" si="103"/>
+        <v>95.851204199244336</v>
       </c>
       <c r="GZ42" s="20">
-        <f t="shared" si="91"/>
-        <v>86.722567546517965</v>
+        <f t="shared" si="103"/>
+        <v>94.892692157251886</v>
       </c>
       <c r="HA42" s="20">
-        <f t="shared" si="91"/>
-        <v>85.855341871052786</v>
+        <f t="shared" si="103"/>
+        <v>93.943765235679365</v>
       </c>
       <c r="HB42" s="20">
-        <f>HA42*(1+$AO$47)</f>
-        <v>84.996788452342258</v>
+        <f t="shared" si="103"/>
+        <v>93.004327583322564</v>
       </c>
       <c r="HC42" s="20">
-        <f t="shared" ref="HC42:HE42" si="92">HB42*(1+$AO$47)</f>
-        <v>84.146820567818835</v>
+        <f t="shared" si="103"/>
+        <v>92.074284307489336</v>
       </c>
       <c r="HD42" s="20">
-        <f t="shared" si="92"/>
-        <v>83.305352362140653</v>
+        <f t="shared" si="103"/>
+        <v>91.153541464414445</v>
       </c>
       <c r="HE42" s="20">
-        <f t="shared" si="92"/>
-        <v>82.472298838519251</v>
+        <f t="shared" si="103"/>
+        <v>90.242006049770296</v>
       </c>
       <c r="HF42" s="20">
-        <f>HE42*(1+$AO$47)</f>
-        <v>81.647575850134061</v>
+        <f t="shared" si="103"/>
+        <v>89.339585989272592</v>
       </c>
       <c r="HG42" s="20">
-        <f t="shared" ref="HG42:JE42" si="93">HF42*(1+$AO$47)</f>
-        <v>80.83110009163272</v>
+        <f t="shared" si="103"/>
+        <v>88.446190129379872</v>
       </c>
       <c r="HH42" s="20">
-        <f t="shared" si="93"/>
-        <v>80.022789090716387</v>
+        <f t="shared" si="103"/>
+        <v>87.561728228086068</v>
       </c>
       <c r="HI42" s="20">
-        <f t="shared" si="93"/>
-        <v>79.222561199809221</v>
+        <f t="shared" si="103"/>
+        <v>86.686110945805211</v>
       </c>
       <c r="HJ42" s="20">
-        <f t="shared" si="93"/>
-        <v>78.430335587811129</v>
+        <f>HI42*(1+$AU$47)</f>
+        <v>85.819249836347154</v>
       </c>
       <c r="HK42" s="20">
-        <f t="shared" si="93"/>
-        <v>77.64603223193302</v>
+        <f t="shared" ref="HK42:HM42" si="104">HJ42*(1+$AU$47)</f>
+        <v>84.961057337983675</v>
       </c>
       <c r="HL42" s="20">
-        <f t="shared" si="93"/>
-        <v>76.869571909613683</v>
+        <f t="shared" si="104"/>
+        <v>84.111446764603841</v>
       </c>
       <c r="HM42" s="20">
-        <f t="shared" si="93"/>
-        <v>76.100876190517539</v>
+        <f t="shared" si="104"/>
+        <v>83.270332296957804</v>
       </c>
       <c r="HN42" s="20">
-        <f t="shared" si="93"/>
-        <v>75.339867428612365</v>
+        <f>HM42*(1+$AU$47)</f>
+        <v>82.437628973988225</v>
       </c>
       <c r="HO42" s="20">
-        <f t="shared" si="93"/>
-        <v>74.586468754326248</v>
+        <f t="shared" ref="HO42:JM42" si="105">HN42*(1+$AU$47)</f>
+        <v>81.613252684248337</v>
       </c>
       <c r="HP42" s="20">
-        <f t="shared" si="93"/>
-        <v>73.840604066782987</v>
+        <f t="shared" si="105"/>
+        <v>80.797120157405857</v>
       </c>
       <c r="HQ42" s="20">
-        <f t="shared" si="93"/>
-        <v>73.102198026115161</v>
+        <f t="shared" si="105"/>
+        <v>79.989148955831794</v>
       </c>
       <c r="HR42" s="20">
-        <f t="shared" si="93"/>
-        <v>72.371176045854014</v>
+        <f t="shared" si="105"/>
+        <v>79.189257466273475</v>
       </c>
       <c r="HS42" s="20">
-        <f t="shared" si="93"/>
-        <v>71.647464285395472</v>
+        <f t="shared" si="105"/>
+        <v>78.397364891610735</v>
       </c>
       <c r="HT42" s="20">
-        <f t="shared" si="93"/>
-        <v>70.930989642541519</v>
+        <f t="shared" si="105"/>
+        <v>77.613391242694632</v>
       </c>
       <c r="HU42" s="20">
-        <f t="shared" si="93"/>
-        <v>70.221679746116109</v>
+        <f t="shared" si="105"/>
+        <v>76.83725733026769</v>
       </c>
       <c r="HV42" s="20">
-        <f t="shared" si="93"/>
-        <v>69.519462948654947</v>
+        <f t="shared" si="105"/>
+        <v>76.068884756965019</v>
       </c>
       <c r="HW42" s="20">
-        <f t="shared" si="93"/>
-        <v>68.824268319168397</v>
+        <f t="shared" si="105"/>
+        <v>75.308195909395366</v>
       </c>
       <c r="HX42" s="20">
-        <f t="shared" si="93"/>
-        <v>68.136025635976708</v>
+        <f t="shared" si="105"/>
+        <v>74.555113950301418</v>
       </c>
       <c r="HY42" s="20">
-        <f t="shared" si="93"/>
-        <v>67.454665379616941</v>
+        <f t="shared" si="105"/>
+        <v>73.809562810798397</v>
       </c>
       <c r="HZ42" s="20">
-        <f t="shared" si="93"/>
-        <v>66.78011872582077</v>
+        <f t="shared" si="105"/>
+        <v>73.071467182690412</v>
       </c>
       <c r="IA42" s="20">
-        <f t="shared" si="93"/>
-        <v>66.112317538562564</v>
+        <f t="shared" si="105"/>
+        <v>72.34075251086351</v>
       </c>
       <c r="IB42" s="20">
-        <f t="shared" si="93"/>
-        <v>65.451194363176938</v>
+        <f t="shared" si="105"/>
+        <v>71.617344985754869</v>
       </c>
       <c r="IC42" s="20">
-        <f t="shared" si="93"/>
-        <v>64.796682419545164</v>
+        <f t="shared" si="105"/>
+        <v>70.901171535897319</v>
       </c>
       <c r="ID42" s="20">
-        <f t="shared" si="93"/>
-        <v>64.148715595349714</v>
+        <f t="shared" si="105"/>
+        <v>70.19215982053835</v>
       </c>
       <c r="IE42" s="20">
-        <f t="shared" si="93"/>
-        <v>63.507228439396215</v>
+        <f t="shared" si="105"/>
+        <v>69.490238222332962</v>
       </c>
       <c r="IF42" s="20">
-        <f t="shared" si="93"/>
-        <v>62.872156155002251</v>
+        <f t="shared" si="105"/>
+        <v>68.79533584010963</v>
       </c>
       <c r="IG42" s="20">
-        <f t="shared" si="93"/>
-        <v>62.243434593452228</v>
+        <f t="shared" si="105"/>
+        <v>68.107382481708527</v>
       </c>
       <c r="IH42" s="20">
-        <f t="shared" si="93"/>
-        <v>61.621000247517706</v>
+        <f t="shared" si="105"/>
+        <v>67.426308656891436</v>
       </c>
       <c r="II42" s="20">
-        <f t="shared" si="93"/>
-        <v>61.004790245042528</v>
+        <f t="shared" si="105"/>
+        <v>66.752045570322522</v>
       </c>
       <c r="IJ42" s="20">
-        <f t="shared" si="93"/>
-        <v>60.394742342592103</v>
+        <f t="shared" si="105"/>
+        <v>66.084525114619296</v>
       </c>
       <c r="IK42" s="20">
-        <f t="shared" si="93"/>
-        <v>59.790794919166181</v>
+        <f t="shared" si="105"/>
+        <v>65.423679863473097</v>
       </c>
       <c r="IL42" s="20">
-        <f t="shared" si="93"/>
-        <v>59.192886969974516</v>
+        <f t="shared" si="105"/>
+        <v>64.76944306483837</v>
       </c>
       <c r="IM42" s="20">
-        <f t="shared" si="93"/>
-        <v>58.600958100274774</v>
+        <f t="shared" si="105"/>
+        <v>64.121748634189984</v>
       </c>
       <c r="IN42" s="20">
-        <f t="shared" si="93"/>
-        <v>58.014948519272025</v>
+        <f t="shared" si="105"/>
+        <v>63.480531147848083</v>
       </c>
       <c r="IO42" s="20">
-        <f t="shared" si="93"/>
-        <v>57.434799034079305</v>
+        <f t="shared" si="105"/>
+        <v>62.845725836369603</v>
       </c>
       <c r="IP42" s="20">
-        <f t="shared" si="93"/>
-        <v>56.860451043738514</v>
+        <f t="shared" si="105"/>
+        <v>62.217268578005907</v>
       </c>
       <c r="IQ42" s="20">
-        <f t="shared" si="93"/>
-        <v>56.291846533301126</v>
+        <f t="shared" si="105"/>
+        <v>61.595095892225849</v>
       </c>
       <c r="IR42" s="20">
-        <f t="shared" si="93"/>
-        <v>55.728928067968113</v>
+        <f t="shared" si="105"/>
+        <v>60.979144933303587</v>
       </c>
       <c r="IS42" s="20">
-        <f t="shared" si="93"/>
-        <v>55.17163878728843</v>
+        <f t="shared" si="105"/>
+        <v>60.369353483970549</v>
       </c>
       <c r="IT42" s="20">
-        <f t="shared" si="93"/>
-        <v>54.619922399415543</v>
+        <f t="shared" si="105"/>
+        <v>59.765659949130843</v>
       </c>
       <c r="IU42" s="20">
-        <f t="shared" si="93"/>
-        <v>54.073723175421385</v>
+        <f t="shared" si="105"/>
+        <v>59.168003349639534</v>
       </c>
       <c r="IV42" s="20">
-        <f t="shared" si="93"/>
-        <v>53.532985943667171</v>
+        <f t="shared" si="105"/>
+        <v>58.576323316143139</v>
       </c>
       <c r="IW42" s="20">
-        <f t="shared" si="93"/>
-        <v>52.997656084230499</v>
+        <f t="shared" si="105"/>
+        <v>57.990560082981709</v>
       </c>
       <c r="IX42" s="20">
-        <f t="shared" si="93"/>
-        <v>52.467679523388192</v>
+        <f t="shared" si="105"/>
+        <v>57.410654482151891</v>
       </c>
       <c r="IY42" s="20">
-        <f t="shared" si="93"/>
-        <v>51.943002728154312</v>
+        <f t="shared" si="105"/>
+        <v>56.836547937330373</v>
       </c>
       <c r="IZ42" s="20">
-        <f t="shared" si="93"/>
-        <v>51.423572700872768</v>
+        <f t="shared" si="105"/>
+        <v>56.268182457957067</v>
       </c>
       <c r="JA42" s="20">
-        <f t="shared" si="93"/>
-        <v>50.909336973864036</v>
+        <f t="shared" si="105"/>
+        <v>55.705500633377497</v>
       </c>
       <c r="JB42" s="20">
-        <f t="shared" si="93"/>
-        <v>50.400243604125393</v>
+        <f t="shared" si="105"/>
+        <v>55.148445627043721</v>
       </c>
       <c r="JC42" s="20">
-        <f t="shared" si="93"/>
-        <v>49.896241168084138</v>
+        <f t="shared" si="105"/>
+        <v>54.596961170773284</v>
       </c>
       <c r="JD42" s="20">
-        <f t="shared" si="93"/>
-        <v>49.397278756403296</v>
+        <f t="shared" si="105"/>
+        <v>54.050991559065551</v>
       </c>
       <c r="JE42" s="20">
-        <f t="shared" si="93"/>
-        <v>48.903305968839263</v>
+        <f t="shared" si="105"/>
+        <v>53.510481643474897</v>
+      </c>
+      <c r="JF42" s="20">
+        <f t="shared" si="105"/>
+        <v>52.975376827040151</v>
+      </c>
+      <c r="JG42" s="20">
+        <f t="shared" si="105"/>
+        <v>52.445623058769748</v>
+      </c>
+      <c r="JH42" s="20">
+        <f t="shared" si="105"/>
+        <v>51.921166828182052</v>
+      </c>
+      <c r="JI42" s="20">
+        <f t="shared" si="105"/>
+        <v>51.401955159900233</v>
+      </c>
+      <c r="JJ42" s="20">
+        <f t="shared" si="105"/>
+        <v>50.887935608301227</v>
+      </c>
+      <c r="JK42" s="20">
+        <f t="shared" si="105"/>
+        <v>50.379056252218213</v>
+      </c>
+      <c r="JL42" s="20">
+        <f t="shared" si="105"/>
+        <v>49.875265689696029</v>
+      </c>
+      <c r="JM42" s="20">
+        <f t="shared" si="105"/>
+        <v>49.376513032799068</v>
       </c>
     </row>
-    <row r="43" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
@@ -6580,7 +7085,7 @@
         <v>375</v>
       </c>
       <c r="F43" s="2">
-        <f>AC43</f>
+        <f>AI43</f>
         <v>384.33832999999998</v>
       </c>
       <c r="G43" s="2">
@@ -6641,110 +7146,124 @@
         <v>402.91785199999998</v>
       </c>
       <c r="Z43" s="2">
-        <f>V43*0.98</f>
-        <v>401.87426440000002</v>
+        <v>400.20153900000003</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>400.36052899999999</v>
+      </c>
+      <c r="AB43" s="2">
+        <f>X43*0.99</f>
+        <v>399.74459184</v>
       </c>
       <c r="AC43" s="2">
+        <f t="shared" ref="AC43:AD43" si="106">Y43*0.99</f>
+        <v>398.88867347999997</v>
+      </c>
+      <c r="AD43" s="2">
+        <f t="shared" si="106"/>
+        <v>396.19952361000003</v>
+      </c>
+      <c r="AI43" s="2">
         <v>384.33832999999998</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AJ43" s="2">
         <v>388.60736100000003</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AK43" s="2">
         <f>N43</f>
         <v>408.36590200000001</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AL43" s="2">
         <f>R43</f>
         <v>408.78491400000001</v>
       </c>
-      <c r="AG43" s="2">
+      <c r="AM43" s="2">
         <f>V43</f>
         <v>410.07578000000001</v>
       </c>
-      <c r="AH43" s="2">
+      <c r="AN43" s="2">
         <f>Z43</f>
-        <v>401.87426440000002</v>
-      </c>
-      <c r="AI43" s="2">
-        <f t="shared" ref="AI43:AK43" si="94">AH43*1.01</f>
-        <v>405.893007044</v>
-      </c>
-      <c r="AJ43" s="2">
-        <f t="shared" si="94"/>
-        <v>409.95193711444</v>
-      </c>
-      <c r="AK43" s="2">
-        <f t="shared" si="94"/>
-        <v>414.05145648558442</v>
+        <v>400.20153900000003</v>
+      </c>
+      <c r="AO43" s="2">
+        <f>AD43</f>
+        <v>396.19952361000003</v>
+      </c>
+      <c r="AP43" s="2">
+        <f t="shared" ref="AO43:AQ43" si="107">AO43*1.01</f>
+        <v>400.16151884610002</v>
+      </c>
+      <c r="AQ43" s="2">
+        <f t="shared" si="107"/>
+        <v>404.16313403456104</v>
       </c>
     </row>
-    <row r="44" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="21">
-        <f t="shared" ref="C44:Y44" si="95">C42/C43</f>
+        <f t="shared" ref="C44:Y44" si="108">C42/C43</f>
         <v>0.16038133333333326</v>
       </c>
       <c r="D44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>4.6709333333333498E-2</v>
       </c>
       <c r="E44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.23464533333333362</v>
       </c>
       <c r="F44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.30117214694667632</v>
       </c>
       <c r="G44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>-5.042970822281187E-2</v>
       </c>
       <c r="H44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.19875862068965519</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.3460744680851065</v>
       </c>
       <c r="J44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.24986145334493454</v>
       </c>
       <c r="K44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.37274674235680966</v>
       </c>
       <c r="L44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>6.8965854712172217E-2</v>
       </c>
       <c r="M44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.30541061285506449</v>
       </c>
       <c r="N44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.23335934644220163</v>
       </c>
       <c r="O44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.37235010074771063</v>
       </c>
       <c r="P44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>-0.91462354078305985</v>
       </c>
       <c r="Q44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>6.6349032335948646E-2</v>
       </c>
       <c r="R44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.13863036051276595</v>
       </c>
       <c r="S44" s="21">
@@ -6752,71 +7271,97 @@
         <v>0.34599033981782673</v>
       </c>
       <c r="T44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.15704575062611625</v>
       </c>
       <c r="U44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.46799918642558369</v>
       </c>
       <c r="V44" s="21">
-        <f t="shared" ref="V44" si="96">V42/V43</f>
+        <f t="shared" ref="V44" si="109">V42/V43</f>
         <v>0.37306519297481955</v>
       </c>
       <c r="W44" s="21">
-        <f t="shared" ref="W44" si="97">W42/W43</f>
+        <f t="shared" ref="W44" si="110">W42/W43</f>
         <v>0.48116652555711337</v>
       </c>
       <c r="X44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.12319010939792868</v>
       </c>
       <c r="Y44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0.42926119838442911</v>
       </c>
       <c r="Z44" s="21">
-        <f t="shared" ref="Z44" si="98">Z42/Z43</f>
-        <v>0.18731499941253657</v>
+        <f t="shared" ref="Z44:AD44" si="111">Z42/Z43</f>
+        <v>0.37640784784688114</v>
+      </c>
+      <c r="AA44" s="21">
+        <f t="shared" si="111"/>
+        <v>0.28649177851396063</v>
+      </c>
+      <c r="AB44" s="21">
+        <f t="shared" si="111"/>
+        <v>0.187459882208972</v>
       </c>
       <c r="AC44" s="21">
-        <f>AC42/AC43</f>
+        <f t="shared" si="111"/>
+        <v>0.41007567041935994</v>
+      </c>
+      <c r="AD44" s="21">
+        <f t="shared" si="111"/>
+        <v>0.31887477109730367</v>
+      </c>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AI44" s="21">
+        <f>AI42/AI43</f>
         <v>0.73217521655984696</v>
       </c>
-      <c r="AD44" s="21">
-        <f t="shared" ref="AD44:AK44" si="99">AD42/AD43</f>
+      <c r="AJ44" s="21">
+        <f t="shared" ref="AJ44:AS44" si="112">AJ42/AJ43</f>
         <v>0.72860688812325536</v>
       </c>
-      <c r="AE44" s="21">
-        <f t="shared" si="99"/>
+      <c r="AK44" s="21">
+        <f t="shared" si="112"/>
         <v>0.96631966103771472</v>
       </c>
-      <c r="AF44" s="21">
-        <f>AF42/AF43</f>
+      <c r="AL44" s="21">
+        <f>AL42/AL43</f>
         <v>-0.31102175164908391</v>
       </c>
-      <c r="AG44" s="21">
-        <f t="shared" si="99"/>
+      <c r="AM44" s="21">
+        <f t="shared" si="112"/>
         <v>1.3498505081182794</v>
       </c>
-      <c r="AH44" s="21">
-        <f t="shared" si="99"/>
-        <v>1.2287900006169166</v>
-      </c>
-      <c r="AI44" s="21">
-        <f t="shared" si="99"/>
-        <v>1.1853843505434969</v>
-      </c>
-      <c r="AJ44" s="21">
-        <f t="shared" si="99"/>
-        <v>1.178196882470923</v>
-      </c>
-      <c r="AK44" s="21">
-        <f t="shared" si="99"/>
-        <v>1.1680448917546049</v>
+      <c r="AN44" s="21">
+        <f t="shared" si="112"/>
+        <v>1.4222359099923412</v>
+      </c>
+      <c r="AO44" s="21">
+        <f t="shared" si="112"/>
+        <v>1.2103715883617374</v>
+      </c>
+      <c r="AP44" s="21">
+        <f t="shared" si="112"/>
+        <v>1.2175314071300727</v>
+      </c>
+      <c r="AQ44" s="21">
+        <f t="shared" si="112"/>
+        <v>1.2082014483397749</v>
+      </c>
+      <c r="AR44" s="21" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS44" s="21" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:273" x14ac:dyDescent="0.3">
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
       <c r="T45" s="21"/>
@@ -6826,255 +7371,297 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
     </row>
-    <row r="47" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" ref="G47:P48" si="100">G30/C30-1</f>
+        <f t="shared" ref="G47:P48" si="113">G30/C30-1</f>
         <v>0.21932484022101817</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>0.16658347809393592</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>9.9150813905175772E-2</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>8.6006004940670122E-2</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>6.7555267789697782E-2</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>5.3942148534768863E-2</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>3.7964269344899826E-2</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>-1.4606812156847782E-2</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>4.9961727704819214E-2</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>-0.62104742029338733</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" ref="Q47:Z48" si="101">Q30/M30-1</f>
+        <f t="shared" ref="Q47:Z48" si="114">Q30/M30-1</f>
         <v>-0.26535902274993595</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>-0.11650584467247405</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>-0.133138927287624</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>1.5645493244791391</v>
       </c>
       <c r="U47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.40871332019546869</v>
       </c>
       <c r="V47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.215697013253902</v>
       </c>
       <c r="W47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.21902539977726754</v>
       </c>
       <c r="X47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.15296429150819257</v>
       </c>
       <c r="Y47" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>1.3066396364272759E-2</v>
       </c>
       <c r="Z47" s="4">
-        <f t="shared" si="101"/>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" si="114"/>
+        <v>-5.7005628624729354E-2</v>
+      </c>
+      <c r="AA47" s="4">
+        <f t="shared" ref="AA47:AA48" si="115">AA30/W30-1</f>
+        <v>6.1158786148450606E-2</v>
+      </c>
+      <c r="AB47" s="4">
+        <f t="shared" ref="AB47:AB48" si="116">AB30/X30-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AC47" s="4">
+        <f t="shared" ref="AC47:AC48" si="117">AC30/Y30-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" ref="AD47:AK48" si="102">AD30/AC30-1</f>
+        <f t="shared" ref="AD47:AD48" si="118">AD30/Z30-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AJ47" s="4">
+        <f t="shared" ref="AJ47:AQ48" si="119">AJ30/AI30-1</f>
         <v>0.13690984761512492</v>
       </c>
-      <c r="AE47" s="4">
-        <f t="shared" si="102"/>
+      <c r="AK47" s="4">
+        <f t="shared" si="119"/>
         <v>3.3655998450346614E-2</v>
       </c>
-      <c r="AF47" s="4">
-        <f t="shared" si="102"/>
+      <c r="AL47" s="4">
+        <f t="shared" si="119"/>
         <v>-0.2273916739414138</v>
       </c>
-      <c r="AG47" s="4">
-        <f>AG30/AF30-1</f>
+      <c r="AM47" s="4">
+        <f>AM30/AL30-1</f>
         <v>0.29450755725463429</v>
       </c>
-      <c r="AH47" s="4">
-        <f>AH30/AG30-1</f>
-        <v>8.9791734328764194E-2</v>
-      </c>
-      <c r="AI47" s="4">
-        <f>AI30/AH30-1</f>
+      <c r="AN47" s="4">
+        <f>AN30/AM30-1</f>
+        <v>7.0206192435169346E-2</v>
+      </c>
+      <c r="AO47" s="4">
+        <f>AO30/AN30-1</f>
+        <v>4.5459183607301501E-2</v>
+      </c>
+      <c r="AP47" s="4">
+        <f t="shared" si="119"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AJ47" s="4">
-        <f t="shared" si="102"/>
+      <c r="AQ47" s="4">
+        <f t="shared" si="119"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AK47" s="4">
-        <f t="shared" si="102"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AN47" s="1" t="s">
+      <c r="AT47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AO47" s="4">
+      <c r="AU47" s="4">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:273" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>0.12675508616807907</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>0.12837438636368104</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>6.6740006734645307E-2</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>9.0545794403476432E-2</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>7.6109590941292327E-2</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>6.5497116714359205E-2</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>4.2513611128562889E-2</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>-3.6585496905089832E-2</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>2.3247141870636145E-2</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>-0.46468424549849241</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>-0.28610610949017767</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>-0.13650496645343357</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>-0.18180291212194377</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.60349507456769036</v>
       </c>
       <c r="U48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.30830555481204969</v>
       </c>
       <c r="V48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.14717370488722126</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.18765774699261129</v>
       </c>
       <c r="X48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>0.17185461323392359</v>
       </c>
       <c r="Y48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
         <v>2.9652501388829799E-2</v>
       </c>
       <c r="Z48" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="114"/>
+        <v>-1.2745353329908338E-2</v>
+      </c>
+      <c r="AA48" s="4">
+        <f t="shared" si="115"/>
+        <v>0.15224228880445234</v>
+      </c>
+      <c r="AB48" s="4">
+        <f t="shared" si="116"/>
         <v>3.0000000000000027E-2</v>
       </c>
+      <c r="AC48" s="4">
+        <f t="shared" si="117"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
       <c r="AD48" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="118"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AJ48" s="4">
+        <f t="shared" si="119"/>
         <v>0.10086870504903045</v>
       </c>
-      <c r="AE48" s="4">
-        <f t="shared" si="102"/>
+      <c r="AK48" s="4">
+        <f t="shared" si="119"/>
         <v>3.2686767812559969E-2</v>
       </c>
-      <c r="AF48" s="4">
-        <f t="shared" si="102"/>
+      <c r="AL48" s="4">
+        <f t="shared" si="119"/>
         <v>-0.21115303898164872</v>
       </c>
-      <c r="AG48" s="4">
-        <f t="shared" si="102"/>
+      <c r="AM48" s="4">
+        <f t="shared" si="119"/>
         <v>0.15123220864081999</v>
       </c>
-      <c r="AH48" s="4">
-        <f t="shared" si="102"/>
-        <v>9.6347112908397037E-2</v>
-      </c>
-      <c r="AI48" s="4">
-        <f t="shared" si="102"/>
+      <c r="AN48" s="4">
+        <f t="shared" si="119"/>
+        <v>8.3783677564148951E-2</v>
+      </c>
+      <c r="AO48" s="4">
+        <f t="shared" si="119"/>
+        <v>6.0234720959908783E-2</v>
+      </c>
+      <c r="AP48" s="4">
+        <f t="shared" si="119"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AJ48" s="4">
-        <f t="shared" si="102"/>
+      <c r="AQ48" s="4">
+        <f t="shared" si="119"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="AK48" s="4">
-        <f t="shared" si="102"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AN48" s="1" t="s">
+      <c r="AT48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AO48" s="4">
+      <c r="AU48" s="4">
         <f>WACC!C18</f>
-        <v>5.567871068028981E-2</v>
+        <v>5.2029969189364277E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
@@ -7083,122 +7670,140 @@
         <v>0.23631943850788995</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" ref="H49:R49" si="103">H35/D35-1</f>
+        <f t="shared" ref="H49:R49" si="120">H35/D35-1</f>
         <v>0.19891838681892349</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>0.14235296653596152</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>0.13095909186369092</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>3.1684765746199162E-2</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>7.2636968266333257E-2</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>2.1571207284292404E-2</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>4.9090170377517062E-3</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>0.1351598911145635</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>-3.0789380808595723E-2</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>-0.18547406671054922</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="120"/>
         <v>-6.282745790546429E-2</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" ref="S49:S50" si="104">S35/O35-1</f>
+        <f t="shared" ref="S49:S50" si="121">S35/O35-1</f>
         <v>-0.11753779076368753</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" ref="T49:T50" si="105">T35/P35-1</f>
+        <f t="shared" ref="T49:T50" si="122">T35/P35-1</f>
         <v>4.1835519245957187E-2</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" ref="U49:U50" si="106">U35/Q35-1</f>
+        <f t="shared" ref="U49:U50" si="123">U35/Q35-1</f>
         <v>0.33143877313311609</v>
       </c>
       <c r="V49" s="4">
-        <f t="shared" ref="V49:V50" si="107">V35/R35-1</f>
+        <f t="shared" ref="V49:V50" si="124">V35/R35-1</f>
         <v>0.16822701470211077</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" ref="W49:W50" si="108">W35/S35-1</f>
+        <f t="shared" ref="W49:W50" si="125">W35/S35-1</f>
         <v>0.21696465639399842</v>
       </c>
       <c r="X49" s="4">
-        <f t="shared" ref="X49:X50" si="109">X35/T35-1</f>
+        <f t="shared" ref="X49:X50" si="126">X35/T35-1</f>
         <v>0.20988246917262399</v>
       </c>
       <c r="Y49" s="4">
-        <f t="shared" ref="Y49:Y50" si="110">Y35/U35-1</f>
+        <f t="shared" ref="Y49:Y50" si="127">Y35/U35-1</f>
         <v>2.7728015235853887E-2</v>
       </c>
       <c r="Z49" s="4">
-        <f t="shared" ref="Z49:Z50" si="111">Z35/V35-1</f>
-        <v>8.3886888755499767E-2</v>
+        <f t="shared" ref="Z49:Z50" si="128">Z35/V35-1</f>
+        <v>-4.7846264544678219E-2</v>
+      </c>
+      <c r="AA49" s="4">
+        <f t="shared" ref="AA49:AA50" si="129">AA35/W35-1</f>
+        <v>0.10646540057740883</v>
+      </c>
+      <c r="AB49" s="4">
+        <f t="shared" ref="AB49:AB50" si="130">AB35/X35-1</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AC49" s="4">
+        <f t="shared" ref="AC49:AC50" si="131">AC35/Y35-1</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="AD49" s="4">
-        <f>AD35/AC35-1</f>
+        <f t="shared" ref="AD49:AD50" si="132">AD35/Z35-1</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AJ49" s="4">
+        <f>AJ35/AI35-1</f>
         <v>0.17274809597434571</v>
       </c>
-      <c r="AE49" s="4">
-        <f t="shared" ref="AE49:AK49" si="112">AE35/AD35-1</f>
+      <c r="AK49" s="4">
+        <f t="shared" ref="AK49:AQ49" si="133">AK35/AJ35-1</f>
         <v>3.1386364709118375E-2</v>
       </c>
-      <c r="AF49" s="4">
-        <f t="shared" si="112"/>
+      <c r="AL49" s="4">
+        <f t="shared" si="133"/>
         <v>-3.8132747964451874E-2</v>
       </c>
-      <c r="AG49" s="4">
-        <f t="shared" si="112"/>
+      <c r="AM49" s="4">
+        <f t="shared" si="133"/>
         <v>9.1244083882031868E-2</v>
       </c>
-      <c r="AH49" s="4">
-        <f t="shared" si="112"/>
-        <v>0.12989743281338106</v>
-      </c>
-      <c r="AI49" s="4">
-        <f t="shared" si="112"/>
+      <c r="AN49" s="4">
+        <f t="shared" si="133"/>
+        <v>9.0879909791392599E-2</v>
+      </c>
+      <c r="AO49" s="4">
+        <f t="shared" si="133"/>
+        <v>4.8689653604090166E-2</v>
+      </c>
+      <c r="AP49" s="4">
+        <f t="shared" si="133"/>
+        <v>4.559383233780645E-2</v>
+      </c>
+      <c r="AQ49" s="4">
+        <f t="shared" si="133"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AJ49" s="4">
-        <f t="shared" si="112"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AK49" s="4">
-        <f t="shared" si="112"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AN49" s="1" t="s">
+      <c r="AT49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AO49" s="2">
-        <f>NPV(AO48,AE42:JE42)</f>
-        <v>7163.5460795508316</v>
+      <c r="AU49" s="2">
+        <f>NPV(AU48,AN42:JM42)</f>
+        <v>7539.979635792708</v>
       </c>
     </row>
-    <row r="50" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
@@ -7207,122 +7812,140 @@
         <v>0.60696880191988156</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" ref="H50:R50" si="113">H36/D36-1</f>
+        <f t="shared" ref="H50:R50" si="134">H36/D36-1</f>
         <v>0.22143301782892411</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>8.3987151448878583E-2</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-0.12464466361489224</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>0.15401007472759876</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-0.17806178453818378</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>7.9497380350421754E-2</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>3.5676442113488083E-3</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-0.1101477263677646</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-8.126522305955671</v>
       </c>
       <c r="Q50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-0.46077515214521869</v>
       </c>
       <c r="R50" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-0.30102471001997833</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="121"/>
         <v>-9.2794576635224502E-3</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>-1.2374934187629953</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="106"/>
+        <f t="shared" si="123"/>
         <v>1.342919036014079</v>
       </c>
       <c r="V50" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="124"/>
         <v>1.0248538329457233</v>
       </c>
       <c r="W50" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="125"/>
         <v>0.32242565900532427</v>
       </c>
       <c r="X50" s="4">
-        <f t="shared" si="109"/>
+        <f t="shared" si="126"/>
         <v>-0.28452397726739087</v>
       </c>
       <c r="Y50" s="4">
-        <f t="shared" si="110"/>
+        <f t="shared" si="127"/>
         <v>-7.9432296241504385E-2</v>
       </c>
       <c r="Z50" s="4">
-        <f t="shared" si="111"/>
-        <v>-0.3787452971452816</v>
+        <f t="shared" si="128"/>
+        <v>-0.26450840744298931</v>
+      </c>
+      <c r="AA50" s="4">
+        <f t="shared" si="129"/>
+        <v>-0.32801666723590239</v>
+      </c>
+      <c r="AB50" s="4">
+        <f t="shared" si="130"/>
+        <v>0.2231503558018022</v>
+      </c>
+      <c r="AC50" s="4">
+        <f t="shared" si="131"/>
+        <v>0.10618968703547549</v>
       </c>
       <c r="AD50" s="4">
-        <f>AD36/AC36-1</f>
+        <f t="shared" si="132"/>
+        <v>0.14593334744123809</v>
+      </c>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AJ50" s="4">
+        <f>AJ36/AI36-1</f>
         <v>0.15677838212724016</v>
       </c>
-      <c r="AE50" s="4">
-        <f t="shared" ref="AE50:AK50" si="114">AE36/AD36-1</f>
+      <c r="AK50" s="4">
+        <f t="shared" ref="AK50:AQ50" si="135">AK36/AJ36-1</f>
         <v>4.8600047001263968E-2</v>
       </c>
-      <c r="AF50" s="4">
-        <f t="shared" si="114"/>
+      <c r="AL50" s="4">
+        <f t="shared" si="135"/>
         <v>-1.1502077910618962</v>
       </c>
-      <c r="AG50" s="4">
-        <f t="shared" si="114"/>
+      <c r="AM50" s="4">
+        <f t="shared" si="135"/>
         <v>-9.0617840905085654</v>
       </c>
-      <c r="AH50" s="4">
-        <f t="shared" si="114"/>
-        <v>-8.8793330331342846E-2</v>
-      </c>
-      <c r="AI50" s="4">
-        <f t="shared" si="114"/>
-        <v>7.6171078481890309E-3</v>
-      </c>
-      <c r="AJ50" s="4">
-        <f t="shared" si="114"/>
-        <v>5.413752574268571E-3</v>
-      </c>
-      <c r="AK50" s="4">
-        <f t="shared" si="114"/>
-        <v>2.9930616621600681E-3</v>
-      </c>
-      <c r="AN50" s="1" t="s">
+      <c r="AN50" s="4">
+        <f t="shared" si="135"/>
+        <v>-5.7775232399362997E-2</v>
+      </c>
+      <c r="AO50" s="4">
+        <f t="shared" si="135"/>
+        <v>-2.8909127465917783E-2</v>
+      </c>
+      <c r="AP50" s="4">
+        <f t="shared" si="135"/>
+        <v>2.7121360474325673E-2</v>
+      </c>
+      <c r="AQ50" s="4">
+        <f t="shared" si="135"/>
+        <v>4.3465348812994353E-3</v>
+      </c>
+      <c r="AT50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AO50" s="2">
+      <c r="AU50" s="2">
         <f>Main!C7-Main!C8</f>
-        <v>-889.42400000000009</v>
+        <v>-1302.7</v>
       </c>
     </row>
-    <row r="51" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
@@ -7331,122 +7954,140 @@
         <v>-1.3161132633889245</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" ref="H51:R51" si="115">H42/D42-1</f>
+        <f t="shared" ref="H51:R51" si="136">H42/D42-1</f>
         <v>3.2779173327243516</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>0.4788162560232736</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-0.16115488285300039</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-8.7097096570586778</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-0.62325842096834427</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-4.3151148135624262E-2</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-1.8558569692470384E-2</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>4.1698220048163481E-2</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-13.878108395324109</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-0.78275466030568097</v>
       </c>
       <c r="R51" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-0.40532656145063872</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" ref="S51:S53" si="116">S42/O42-1</f>
+        <f t="shared" ref="S51:S53" si="137">S42/O42-1</f>
         <v>-6.6704215758829233E-2</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" ref="T51:T53" si="117">T42/P42-1</f>
+        <f t="shared" ref="T51:T53" si="138">T42/P42-1</f>
         <v>-1.1780200193096393</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" ref="U51:U53" si="118">U42/Q42-1</f>
+        <f t="shared" ref="U51:U53" si="139">U42/Q42-1</f>
         <v>6.1475100743095838</v>
       </c>
       <c r="V51" s="4">
-        <f t="shared" ref="V51:V53" si="119">V42/R42-1</f>
+        <f t="shared" ref="V51:V53" si="140">V42/R42-1</f>
         <v>1.6995764955002568</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" ref="W51:W53" si="120">W42/S42-1</f>
+        <f t="shared" ref="W51:W53" si="141">W42/S42-1</f>
         <v>0.37429826531185117</v>
       </c>
       <c r="X51" s="4">
-        <f t="shared" ref="X51:X53" si="121">X42/T42-1</f>
+        <f t="shared" ref="X51:X53" si="142">X42/T42-1</f>
         <v>-0.23141581297609792</v>
       </c>
       <c r="Y51" s="4">
-        <f t="shared" ref="Y51:Y53" si="122">Y42/U42-1</f>
+        <f t="shared" ref="Y51:Y53" si="143">Y42/U42-1</f>
         <v>-0.10539328516083557</v>
       </c>
       <c r="Z51" s="4">
-        <f t="shared" ref="Z51:Z53" si="123">Z42/V42-1</f>
-        <v>-0.50794471614864367</v>
+        <f t="shared" ref="Z51:Z53" si="144">Z42/V42-1</f>
+        <v>-1.5334836748700731E-2</v>
+      </c>
+      <c r="AA51" s="4">
+        <f t="shared" ref="AA51:AA53" si="145">AA42/W42-1</f>
+        <v>-0.41432678216734764</v>
+      </c>
+      <c r="AB51" s="4">
+        <f t="shared" ref="AB51:AB53" si="146">AB42/X42-1</f>
+        <v>0.50649499618029159</v>
+      </c>
+      <c r="AC51" s="4">
+        <f t="shared" ref="AC51:AC53" si="147">AC42/Y42-1</f>
+        <v>-5.4247355122949092E-2</v>
       </c>
       <c r="AD51" s="4">
-        <f>AD42/AC42-1</f>
+        <f t="shared" ref="AD51:AD53" si="148">AD42/Z42-1</f>
+        <v>-0.1613192307436998</v>
+      </c>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AJ51" s="4">
+        <f>AJ42/AI42-1</f>
         <v>6.1797493274791115E-3</v>
       </c>
-      <c r="AE51" s="4">
-        <f t="shared" ref="AE51:AK51" si="124">AE42/AD42-1</f>
+      <c r="AK51" s="4">
+        <f t="shared" ref="AK51:AQ51" si="149">AK42/AJ42-1</f>
         <v>0.39368938553799837</v>
       </c>
-      <c r="AF51" s="4">
-        <f t="shared" si="124"/>
+      <c r="AL51" s="4">
+        <f t="shared" si="149"/>
         <v>-1.3221924320598459</v>
       </c>
-      <c r="AG51" s="4">
-        <f t="shared" si="124"/>
+      <c r="AM51" s="4">
+        <f t="shared" si="149"/>
         <v>-5.3537568526281785</v>
       </c>
-      <c r="AH51" s="4">
-        <f t="shared" si="124"/>
-        <v>-0.10789069355296355</v>
-      </c>
-      <c r="AI51" s="4">
-        <f t="shared" si="124"/>
-        <v>-2.5677134866123663E-2</v>
-      </c>
-      <c r="AJ51" s="4">
-        <f t="shared" si="124"/>
-        <v>3.8759586711507588E-3</v>
-      </c>
-      <c r="AK51" s="4">
-        <f t="shared" si="124"/>
-        <v>1.2972858984505731E-3</v>
-      </c>
-      <c r="AN51" s="1" t="s">
+      <c r="AN51" s="4">
+        <f t="shared" si="149"/>
+        <v>2.8254456309470655E-2</v>
+      </c>
+      <c r="AO51" s="4">
+        <f t="shared" si="149"/>
+        <v>-0.15747601079445916</v>
+      </c>
+      <c r="AP51" s="4">
+        <f t="shared" si="149"/>
+        <v>1.5974542880510478E-2</v>
+      </c>
+      <c r="AQ51" s="4">
+        <f t="shared" si="149"/>
+        <v>2.2603570445767218E-3</v>
+      </c>
+      <c r="AT51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AO51" s="2">
-        <f>AO49+AO50</f>
-        <v>6274.1220795508316</v>
+      <c r="AU51" s="2">
+        <f>AU49+AU50</f>
+        <v>6237.2796357927082</v>
       </c>
     </row>
-    <row r="52" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
@@ -7455,122 +8096,140 @@
         <v>5.3333333333334121E-3</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" ref="H52:R52" si="125">H43/D43-1</f>
+        <f t="shared" ref="H52:R52" si="150">H43/D43-1</f>
         <v>5.3333333333334121E-3</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>2.666666666666595E-3</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>1.1107481785644469E-2</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>4.3063196286472261E-2</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>8.5763917771883191E-2</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>8.4248364361702244E-2</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>5.0844484646805244E-2</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>4.2807876947317691E-2</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>-2.8945010753677392E-2</v>
       </c>
       <c r="Q52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="R52" s="4">
-        <f t="shared" si="125"/>
+        <f t="shared" si="150"/>
         <v>1.0260699973916321E-3</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="137"/>
         <v>4.4002369331710423E-3</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>3.677622439390138E-2</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="139"/>
         <v>1.3314533009967988E-2</v>
       </c>
       <c r="V52" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="140"/>
         <v>3.1578122278748122E-3</v>
       </c>
       <c r="W52" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>-1.1789269264415703E-2</v>
       </c>
       <c r="X52" s="4">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>-2.0190166560875467E-2</v>
       </c>
       <c r="Y52" s="4">
-        <f t="shared" si="122"/>
+        <f t="shared" si="143"/>
         <v>-2.4660937696389773E-2</v>
       </c>
       <c r="Z52" s="4">
-        <f t="shared" si="123"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="144"/>
+        <v>-2.4079064118344151E-2</v>
+      </c>
+      <c r="AA52" s="4">
+        <f t="shared" si="145"/>
+        <v>-1.6354504837354567E-2</v>
+      </c>
+      <c r="AB52" s="4">
+        <f t="shared" si="146"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AC52" s="4">
+        <f t="shared" si="147"/>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AD52" s="4">
-        <f>AD43/AC43-1</f>
+        <f t="shared" si="148"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AJ52" s="4">
+        <f>AJ43/AI43-1</f>
         <v>1.1107481785644469E-2</v>
       </c>
-      <c r="AE52" s="4">
-        <f t="shared" ref="AE52:AK52" si="126">AE43/AD43-1</f>
+      <c r="AK52" s="4">
+        <f t="shared" ref="AK52:AQ52" si="151">AK43/AJ43-1</f>
         <v>5.0844484646805244E-2</v>
       </c>
-      <c r="AF52" s="4">
-        <f t="shared" si="126"/>
+      <c r="AL52" s="4">
+        <f t="shared" si="151"/>
         <v>1.0260699973916321E-3</v>
       </c>
-      <c r="AG52" s="4">
-        <f t="shared" si="126"/>
+      <c r="AM52" s="4">
+        <f t="shared" si="151"/>
         <v>3.1578122278748122E-3</v>
       </c>
-      <c r="AH52" s="4">
-        <f t="shared" si="126"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="AI52" s="4">
-        <f t="shared" si="126"/>
+      <c r="AN52" s="4">
+        <f t="shared" si="151"/>
+        <v>-2.4079064118344151E-2</v>
+      </c>
+      <c r="AO52" s="4">
+        <f t="shared" si="151"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="AP52" s="4">
+        <f t="shared" si="151"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AJ52" s="4">
-        <f t="shared" si="126"/>
+      <c r="AQ52" s="4">
+        <f t="shared" si="151"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AK52" s="4">
-        <f t="shared" si="126"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AN52" s="1" t="s">
+      <c r="AT52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AO52" s="21">
-        <f>AO51/Main!C5</f>
-        <v>15.53837371548847</v>
+      <c r="AU52" s="21">
+        <f>AU51/Main!C5</f>
+        <v>15.579157244526241</v>
       </c>
     </row>
-    <row r="53" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
@@ -7579,407 +8238,461 @@
         <v>-1.3144362699491954</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" ref="H53:R53" si="127">H44/D44-1</f>
+        <f t="shared" ref="H53:R53" si="152">H44/D44-1</f>
         <v>3.2552228110653365</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>0.47488323406576471</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-0.17036998315394203</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-8.3914118382346246</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-0.65301703909559439</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-0.11750030406762624</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-6.6045028882273038E-2</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-1.0641048305107814E-3</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-14.26197644617362</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-0.78275466030568097</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="152"/>
         <v>-0.4059361125820522</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="137"/>
         <v>-7.0792946952213165E-2</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>-1.1717053450118513</v>
       </c>
       <c r="U53" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="139"/>
         <v>6.0535947541169568</v>
       </c>
       <c r="V53" s="4">
-        <f t="shared" si="119"/>
+        <f t="shared" si="140"/>
         <v>1.6910785746709891</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>0.39069352575121186</v>
       </c>
       <c r="X53" s="4">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>-0.21557820630746483</v>
       </c>
       <c r="Y53" s="4">
-        <f t="shared" si="122"/>
+        <f t="shared" si="143"/>
         <v>-8.2773622614650155E-2</v>
       </c>
       <c r="Z53" s="4">
-        <f t="shared" si="123"/>
-        <v>-0.49790277158024865</v>
+        <f t="shared" si="144"/>
+        <v>8.959975186661806E-3</v>
+      </c>
+      <c r="AA53" s="4">
+        <f t="shared" si="145"/>
+        <v>-0.4045891322505254</v>
+      </c>
+      <c r="AB53" s="4">
+        <f t="shared" si="146"/>
+        <v>0.52171211735382994</v>
+      </c>
+      <c r="AC53" s="4">
+        <f t="shared" si="147"/>
+        <v>-4.4694298103988839E-2</v>
       </c>
       <c r="AD53" s="4">
-        <f>AD44/AC44-1</f>
+        <f t="shared" si="148"/>
+        <v>-0.15284770782191914</v>
+      </c>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AJ53" s="4">
+        <f>AJ44/AI44-1</f>
         <v>-4.8735990455365252E-3</v>
       </c>
-      <c r="AE53" s="4">
-        <f t="shared" ref="AE53:AK53" si="128">AE44/AD44-1</f>
+      <c r="AK53" s="4">
+        <f t="shared" ref="AK53:AQ53" si="153">AK44/AJ44-1</f>
         <v>0.3262565545142726</v>
       </c>
-      <c r="AF53" s="4">
-        <f t="shared" si="128"/>
+      <c r="AL53" s="4">
+        <f t="shared" si="153"/>
         <v>-1.321862178934746</v>
       </c>
-      <c r="AG53" s="4">
-        <f t="shared" si="128"/>
+      <c r="AM53" s="4">
+        <f t="shared" si="153"/>
         <v>-5.3400517840349426</v>
       </c>
-      <c r="AH53" s="4">
-        <f t="shared" si="128"/>
-        <v>-8.9684381176493244E-2</v>
-      </c>
-      <c r="AI53" s="4">
-        <f t="shared" si="128"/>
-        <v>-3.5323895907053093E-2</v>
-      </c>
-      <c r="AJ53" s="4">
-        <f t="shared" si="128"/>
-        <v>-6.0634072562865127E-3</v>
-      </c>
-      <c r="AK53" s="4">
-        <f t="shared" si="128"/>
-        <v>-8.616548615395514E-3</v>
-      </c>
-      <c r="AN53" s="1" t="s">
+      <c r="AN53" s="4">
+        <f t="shared" si="153"/>
+        <v>5.3624754325550139E-2</v>
+      </c>
+      <c r="AO53" s="4">
+        <f t="shared" si="153"/>
+        <v>-0.14896566746915052</v>
+      </c>
+      <c r="AP53" s="4">
+        <f t="shared" si="153"/>
+        <v>5.9153889906042867E-3</v>
+      </c>
+      <c r="AQ53" s="4">
+        <f t="shared" si="153"/>
+        <v>-7.6630128271516496E-3</v>
+      </c>
+      <c r="AT53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AO53" s="21">
+      <c r="AU53" s="21">
         <f>Main!C4</f>
-        <v>15.21</v>
+        <v>14.84</v>
       </c>
     </row>
-    <row r="54" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:R54" si="129">C32/C30</f>
+        <f t="shared" ref="C54:R54" si="154">C32/C30</f>
         <v>0.51230273205498045</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.52290994563868698</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.51768658087293284</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.53428758358103778</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.54932815354789255</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.53853606926634889</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.53190862122019611</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.53234078373726312</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.54571691886412854</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.53347677730894028</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.52985700178497264</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.54277168036883661</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.55727542051594614</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.34098025895301309</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.54313436837129669</v>
       </c>
       <c r="R54" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="154"/>
         <v>0.55312168075182422</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" ref="S54:Z54" si="130">S32/S30</f>
+        <f t="shared" ref="S54:Z54" si="155">S32/S30</f>
         <v>0.58212916340508059</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="130"/>
+        <f t="shared" si="155"/>
         <v>0.58794518057228573</v>
       </c>
       <c r="U54" s="4">
-        <f t="shared" si="130"/>
+        <f t="shared" si="155"/>
         <v>0.57569802521664915</v>
       </c>
       <c r="V54" s="4">
-        <f t="shared" si="130"/>
+        <f t="shared" si="155"/>
         <v>0.57831017799939566</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="130"/>
+        <f t="shared" si="155"/>
         <v>0.59288170991767841</v>
       </c>
       <c r="X54" s="4">
-        <f t="shared" si="130"/>
+        <f t="shared" si="155"/>
         <v>0.58119401909663804</v>
       </c>
       <c r="Y54" s="4">
-        <f t="shared" si="130"/>
+        <f t="shared" si="155"/>
         <v>0.56875127706555051</v>
       </c>
       <c r="Z54" s="4">
-        <f t="shared" si="130"/>
-        <v>0.56995988449443313</v>
-      </c>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
+        <f t="shared" si="155"/>
+        <v>0.55851779304215476</v>
+      </c>
+      <c r="AA54" s="4">
+        <f t="shared" ref="AA54:AD54" si="156">AA32/AA30</f>
+        <v>0.55793711883474451</v>
+      </c>
+      <c r="AB54" s="4">
+        <f t="shared" si="156"/>
+        <v>0.58522099968224728</v>
+      </c>
       <c r="AC54" s="4">
-        <f t="shared" ref="AC54:AK54" si="131">AC32/AC30</f>
+        <f t="shared" si="156"/>
+        <v>0.57289789940145874</v>
+      </c>
+      <c r="AD54" s="4">
+        <f t="shared" si="156"/>
+        <v>0.5627628142629032</v>
+      </c>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4">
+        <f t="shared" ref="AI54:AQ54" si="157">AI32/AI30</f>
         <v>0.52257612616562299</v>
       </c>
-      <c r="AD54" s="4">
-        <f t="shared" si="131"/>
+      <c r="AJ54" s="4">
+        <f t="shared" si="157"/>
         <v>0.53771092505703588</v>
       </c>
-      <c r="AE54" s="4">
-        <f t="shared" si="131"/>
+      <c r="AK54" s="4">
+        <f t="shared" si="157"/>
         <v>0.53814440073523095</v>
       </c>
-      <c r="AF54" s="4">
-        <f t="shared" si="131"/>
+      <c r="AL54" s="4">
+        <f t="shared" si="157"/>
         <v>0.52843714774865702</v>
       </c>
-      <c r="AG54" s="4">
-        <f>AG32/AG30</f>
+      <c r="AM54" s="4">
+        <f>AM32/AM30</f>
         <v>0.5806294518190348</v>
       </c>
-      <c r="AH54" s="4">
-        <f>AH32/AH30</f>
-        <v>0.57810682972356831</v>
-      </c>
-      <c r="AI54" s="4">
-        <f t="shared" si="131"/>
-        <v>0.57408879953045944</v>
-      </c>
-      <c r="AJ54" s="4">
-        <f t="shared" si="131"/>
-        <v>0.57003250238313052</v>
-      </c>
-      <c r="AK54" s="4">
-        <f t="shared" si="131"/>
-        <v>0.56593757383439847</v>
-      </c>
-      <c r="AN54" s="1" t="s">
+      <c r="AN54" s="4">
+        <f>AN32/AN30</f>
+        <v>0.5753089842103557</v>
+      </c>
+      <c r="AO54" s="4">
+        <f t="shared" si="157"/>
+        <v>0.56930680060959094</v>
+      </c>
+      <c r="AP54" s="4">
+        <f t="shared" si="157"/>
+        <v>0.5652049606153966</v>
+      </c>
+      <c r="AQ54" s="4">
+        <f t="shared" si="157"/>
+        <v>0.56106405547840033</v>
+      </c>
+      <c r="AT54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AO54" s="22">
-        <f>AO52/AO53-1</f>
-        <v>2.158933040686839E-2</v>
+      <c r="AU54" s="22">
+        <f>AU52/AU53-1</f>
+        <v>4.9808439658102444E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" ref="C55:R55" si="132">C36/C30</f>
+        <f t="shared" ref="C55:R55" si="158">C36/C30</f>
         <v>9.8312962628551395E-2</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>5.8669950508261952E-2</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>0.11535874978614646</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>0.10223680969959617</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>0.12956831400216565</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>6.1428449871642768E-2</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>0.11376728379166422</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>8.2406116115738601E-2</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>0.14006126355738555</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>4.7906225722424499E-2</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>0.11831956884237997</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>8.3926003182439562E-2</v>
       </c>
       <c r="O55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>0.11870321606558804</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>-0.90091690751735509</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>8.6846301095396872E-2</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="158"/>
         <v>6.639795187956038E-2</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" ref="S55:Z55" si="133">S36/S30</f>
+        <f t="shared" ref="S55:Z55" si="159">S36/S30</f>
         <v>0.13566385468159511</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="159"/>
         <v>8.343057953511486E-2</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="159"/>
         <v>0.1444395031457375</v>
       </c>
       <c r="V55" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="159"/>
         <v>0.11059182172638442</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="159"/>
         <v>0.14717114381971924</v>
       </c>
       <c r="X55" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="159"/>
         <v>5.177313786706849E-2</v>
       </c>
       <c r="Y55" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="159"/>
         <v>0.13125135945687641</v>
       </c>
       <c r="Z55" s="4">
-        <f t="shared" si="133"/>
-        <v>6.8025434994838554E-2</v>
-      </c>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
+        <f t="shared" si="159"/>
+        <v>8.6256458738659836E-2</v>
+      </c>
+      <c r="AA55" s="4">
+        <f t="shared" ref="AA55:AD55" si="160">AA36/AA30</f>
+        <v>9.3196755284504759E-2</v>
+      </c>
+      <c r="AB55" s="4">
+        <f t="shared" si="160"/>
+        <v>6.0890703849115935E-2</v>
+      </c>
       <c r="AC55" s="4">
-        <f t="shared" ref="AC55:AK55" si="134">AC36/AC30</f>
+        <f t="shared" si="160"/>
+        <v>0.13960471176979114</v>
+      </c>
+      <c r="AD55" s="4">
+        <f t="shared" si="160"/>
+        <v>9.5042454327711051E-2</v>
+      </c>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4">
+        <f t="shared" ref="AI55:AQ55" si="161">AI36/AI30</f>
         <v>9.5262263893165389E-2</v>
       </c>
-      <c r="AD55" s="4">
-        <f t="shared" si="134"/>
+      <c r="AJ55" s="4">
+        <f t="shared" si="161"/>
         <v>9.6927058671602687E-2</v>
       </c>
-      <c r="AE55" s="4">
-        <f t="shared" si="134"/>
+      <c r="AK55" s="4">
+        <f t="shared" si="161"/>
         <v>9.8328378523524038E-2</v>
       </c>
-      <c r="AF55" s="4">
-        <f t="shared" si="134"/>
+      <c r="AL55" s="4">
+        <f t="shared" si="161"/>
         <v>-1.9116657222765385E-2</v>
       </c>
-      <c r="AG55" s="4">
-        <f>AG36/AG30</f>
+      <c r="AM55" s="4">
+        <f>AM36/AM30</f>
         <v>0.11905250162389031</v>
       </c>
-      <c r="AH55" s="4">
-        <f>AH36/AH30</f>
-        <v>9.9543270611466422E-2</v>
-      </c>
-      <c r="AI55" s="4">
-        <f t="shared" si="134"/>
-        <v>9.5525240418357554E-2</v>
-      </c>
-      <c r="AJ55" s="4">
-        <f t="shared" si="134"/>
-        <v>9.1468943271028627E-2</v>
-      </c>
-      <c r="AK55" s="4">
-        <f t="shared" si="134"/>
-        <v>8.7374014722296597E-2</v>
+      <c r="AN55" s="4">
+        <f>AN36/AN30</f>
+        <v>0.10481551729727985</v>
+      </c>
+      <c r="AO55" s="4">
+        <f t="shared" si="161"/>
+        <v>9.7359508379965237E-2</v>
+      </c>
+      <c r="AP55" s="4">
+        <f t="shared" si="161"/>
+        <v>9.523812447842038E-2</v>
+      </c>
+      <c r="AQ55" s="4">
+        <f t="shared" si="161"/>
+        <v>9.109721934142416E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>17</v>
       </c>
@@ -7988,139 +8701,157 @@
         <v>0.32306843515661954</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" ref="D56:AE56" si="135">D39/D38</f>
+        <f t="shared" ref="D56:AK56" si="162">D39/D38</f>
         <v>-3.572497420020583</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.2359405686960975</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.15648182125614268</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>1.1250058714980713</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>-1.7434488588334743E-2</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>7.3627394909922761E-2</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.28171042428270804</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.19409317528972811</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>-9.3143645985121468E-2</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.18039417512882933</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.18965210992412873</v>
       </c>
       <c r="O56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>7.3646467833135235E-2</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.20654539105383202</v>
       </c>
       <c r="Q56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>0.47593676134382157</v>
       </c>
       <c r="R56" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="162"/>
         <v>-9.0646651270207795E-2</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" ref="S56:Z56" si="136">S39/S38</f>
+        <f t="shared" ref="S56:Z56" si="163">S39/S38</f>
         <v>7.8663744334749278E-2</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>-0.16194186610172523</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>4.7803623934318071E-2</v>
       </c>
       <c r="V56" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>8.2994167750598091E-2</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>0.20350494751526146</v>
       </c>
       <c r="X56" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>0.36072484256522325</v>
       </c>
       <c r="Y56" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
         <v>7.1601107914286921E-2</v>
       </c>
       <c r="Z56" s="4">
-        <f t="shared" si="136"/>
+        <f t="shared" si="163"/>
+        <v>-7.7231673567459913E-2</v>
+      </c>
+      <c r="AA56" s="4">
+        <f t="shared" ref="AA56:AD56" si="164">AA39/AA38</f>
+        <v>0.17600574712643666</v>
+      </c>
+      <c r="AB56" s="4">
+        <f t="shared" si="164"/>
+        <v>0.21</v>
+      </c>
+      <c r="AC56" s="4">
+        <f t="shared" si="164"/>
+        <v>0.21</v>
+      </c>
+      <c r="AD56" s="4">
+        <f t="shared" si="164"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4">
-        <f t="shared" si="135"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4">
+        <f t="shared" si="162"/>
         <v>0.18414133797425897</v>
       </c>
-      <c r="AD56" s="4">
-        <f t="shared" si="135"/>
+      <c r="AJ56" s="4">
+        <f t="shared" si="162"/>
         <v>0.42953710036758336</v>
       </c>
-      <c r="AE56" s="4">
-        <f t="shared" si="135"/>
+      <c r="AK56" s="4">
+        <f t="shared" si="162"/>
         <v>0.1729622432912323</v>
       </c>
-      <c r="AF56" s="4">
-        <f>AF39/AF38</f>
+      <c r="AL56" s="4">
+        <f>AL39/AL38</f>
         <v>0.33007171348329389</v>
       </c>
-      <c r="AG56" s="4">
-        <f>AG39/AG38</f>
+      <c r="AM56" s="4">
+        <f>AM39/AM38</f>
         <v>4.6013718461326361E-2</v>
       </c>
-      <c r="AH56" s="4">
-        <f t="shared" ref="AH56:AK56" si="137">AH39/AH38</f>
-        <v>0.18414020985257548</v>
-      </c>
-      <c r="AI56" s="4">
-        <f t="shared" si="137"/>
+      <c r="AN56" s="4">
+        <f t="shared" ref="AN56:AQ56" si="165">AN39/AN38</f>
+        <v>0.12410245204100781</v>
+      </c>
+      <c r="AO56" s="4">
+        <f t="shared" si="165"/>
+        <v>0.20212689776994724</v>
+      </c>
+      <c r="AP56" s="4">
+        <f t="shared" si="165"/>
         <v>0.21</v>
       </c>
-      <c r="AJ56" s="4">
-        <f t="shared" si="137"/>
-        <v>0.20999999999999996</v>
-      </c>
-      <c r="AK56" s="4">
-        <f t="shared" si="137"/>
+      <c r="AQ56" s="4">
+        <f t="shared" si="165"/>
         <v>0.20999999999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="AO54">
+  <conditionalFormatting sqref="AU54">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8145,116 +8876,116 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="16.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
         <f>Main!C8</f>
-        <v>1488.8320000000001</v>
+        <v>1624.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2">
         <f>Main!C6</f>
-        <v>6141.5305473600001</v>
+        <v>5941.3502503599993</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="2">
         <f>+C3+C4</f>
-        <v>7630.3625473600005</v>
+        <v>7565.8502503599993</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="3">
         <f>C3/C5</f>
-        <v>0.1951194311881177</v>
+        <v>0.21471479691561471</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="3">
         <f>C4/C5</f>
-        <v>0.8048805688118823</v>
+        <v>0.78528520308438532</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="4">
-        <f>AVERAGE(Model!AC56:AE56)</f>
-        <v>0.26221356054435824</v>
+        <f>AVERAGE(Model!AI56:AN56)</f>
+        <v>0.21447142760311713</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="2">
-        <v>72.902000000000001</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>75</v>
+        <v>25.7</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="3">
         <f>(C10*(1-C9))/C3</f>
-        <v>3.6126377596125817E-2</v>
+        <v>1.2427260271221848E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="3">
-        <f>'[1]T-Bond Yields'!$C$7</f>
-        <v>4.19E-2</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>95</v>
+        <f>'[1]T-Bond Yields'!$C$12</f>
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>96</v>
+        <v>1.17</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
@@ -8265,22 +8996,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="3">
         <f>(C13+C14*(C15-C13))</f>
-        <v>6.2714999999999993E-2</v>
+        <v>6.3587000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="3">
         <f>(C7*C16)+(C6*C11)*(1-C9)</f>
-        <v>5.567871068028981E-2</v>
+        <v>5.2029969189364277E-2</v>
       </c>
     </row>
   </sheetData>
